--- a/训练中心创客交叉融合空间建设/admin/创客教育基地联盟/创客导师培训课程管理/0 创客导师培训研讨班清华大学学员登记表（2015新版）.xlsx
+++ b/训练中心创客交叉融合空间建设/admin/创客教育基地联盟/创客导师培训课程管理/0 创客导师培训研讨班清华大学学员登记表（2015新版）.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Woody\Git Projects\workzone\训练中心创客交叉融合空间建设\admin\创客教育基地联盟\创客导师培训课程管理\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3640" yWindow="0" windowWidth="19200" windowHeight="17260"/>
+    <workbookView xWindow="3645" yWindow="0" windowWidth="19200" windowHeight="17265" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="联盟成立代表" sheetId="6" r:id="rId1"/>
@@ -30,41 +35,41 @@
     <definedName name="sexList">excelhidesheetname!$A$3:$B$3</definedName>
     <definedName name="sfhqList">excelhidesheetname!$A$6:$B$6</definedName>
     <definedName name="titleList">excelhidesheetname!$A$9:$E$9</definedName>
-    <definedName name="上海市">Sheet3!$Y$2:$Y$18</definedName>
-    <definedName name="云南省">Sheet3!$AF$2:$AF$17</definedName>
+    <definedName name="安徽省">Sheet3!$A$2:$A$18</definedName>
+    <definedName name="澳门特别行政区">Sheet3!$B$2:$B$9</definedName>
+    <definedName name="北京市">Sheet3!$C$2:$C$19</definedName>
+    <definedName name="福建省">Sheet3!$D$2:$D$10</definedName>
+    <definedName name="甘肃省">Sheet3!$E$2:$E$15</definedName>
+    <definedName name="广东省">Sheet3!$F$2:$F$22</definedName>
+    <definedName name="广西壮族自治区">Sheet3!$G$2:$G$15</definedName>
+    <definedName name="贵州省">Sheet3!$H$2:$H$10</definedName>
+    <definedName name="海南省">Sheet3!$I$2:$I$20</definedName>
+    <definedName name="河北省">Sheet3!$J$2:$J$12</definedName>
+    <definedName name="河南省">Sheet3!$K$2:$K$19</definedName>
+    <definedName name="黑龙江省">Sheet3!$L$2:$L$14</definedName>
+    <definedName name="湖北省">Sheet3!$M$2:$M$18</definedName>
+    <definedName name="湖南省">Sheet3!$N$2:$N$15</definedName>
+    <definedName name="吉林省">Sheet3!$O$2:$O$10</definedName>
+    <definedName name="江苏省">Sheet3!$P$2:$P$14</definedName>
+    <definedName name="江西省">Sheet3!$Q$2:$Q$12</definedName>
+    <definedName name="辽宁省">Sheet3!$R$2:$R$15</definedName>
+    <definedName name="内蒙古自治区">Sheet3!$S$2:$S$13</definedName>
+    <definedName name="宁夏回族自治区">Sheet3!$T$2:$T$6</definedName>
     <definedName name="其他">Sheet3!$AI$2</definedName>
-    <definedName name="内蒙古自治区">Sheet3!$S$2:$S$13</definedName>
-    <definedName name="北京市">Sheet3!$C$2:$C$19</definedName>
-    <definedName name="台湾省">Sheet3!$AA$2:$AA$22</definedName>
-    <definedName name="吉林省">Sheet3!$O$2:$O$10</definedName>
-    <definedName name="四川省">Sheet3!$Z$2:$Z$22</definedName>
-    <definedName name="天津市">Sheet3!$AB$2:$AB$19</definedName>
-    <definedName name="宁夏回族自治区">Sheet3!$T$2:$T$6</definedName>
-    <definedName name="安徽省">Sheet3!$A$2:$A$18</definedName>
+    <definedName name="青海省">Sheet3!$U$2:$U$9</definedName>
     <definedName name="山东省">Sheet3!$V$2:$V$18</definedName>
     <definedName name="山西省">Sheet3!$W$2:$W$12</definedName>
-    <definedName name="广东省">Sheet3!$F$2:$F$22</definedName>
-    <definedName name="广西壮族自治区">Sheet3!$G$2:$G$15</definedName>
+    <definedName name="陕西省">Sheet3!$X$2:$X$1122</definedName>
+    <definedName name="上海市">Sheet3!$Y$2:$Y$18</definedName>
+    <definedName name="四川省">Sheet3!$Z$2:$Z$22</definedName>
+    <definedName name="台湾省">Sheet3!$AA$2:$AA$22</definedName>
+    <definedName name="天津市">Sheet3!$AB$2:$AB$19</definedName>
+    <definedName name="西藏自治区">Sheet3!$AC$2:$AC$8</definedName>
+    <definedName name="香港特别行政区">Sheet3!$AD$2:$AD$19</definedName>
     <definedName name="新疆维吾尔自治区">Sheet3!$AE$2:$AE$19</definedName>
-    <definedName name="江苏省">Sheet3!$P$2:$P$14</definedName>
-    <definedName name="江西省">Sheet3!$Q$2:$Q$12</definedName>
-    <definedName name="河北省">Sheet3!$J$2:$J$12</definedName>
-    <definedName name="河南省">Sheet3!$K$2:$K$19</definedName>
+    <definedName name="云南省">Sheet3!$AF$2:$AF$17</definedName>
     <definedName name="浙江省">Sheet3!$AG$2:$AG$12</definedName>
-    <definedName name="海南省">Sheet3!$I$2:$I$20</definedName>
-    <definedName name="湖北省">Sheet3!$M$2:$M$18</definedName>
-    <definedName name="湖南省">Sheet3!$N$2:$N$15</definedName>
-    <definedName name="澳门特别行政区">Sheet3!$B$2:$B$9</definedName>
-    <definedName name="甘肃省">Sheet3!$E$2:$E$15</definedName>
-    <definedName name="福建省">Sheet3!$D$2:$D$10</definedName>
-    <definedName name="西藏自治区">Sheet3!$AC$2:$AC$8</definedName>
-    <definedName name="贵州省">Sheet3!$H$2:$H$10</definedName>
-    <definedName name="辽宁省">Sheet3!$R$2:$R$15</definedName>
     <definedName name="重庆市">Sheet3!$AH$2:$AH$20</definedName>
-    <definedName name="陕西省">Sheet3!$X$2:$X$1122</definedName>
-    <definedName name="青海省">Sheet3!$U$2:$U$9</definedName>
-    <definedName name="香港特别行政区">Sheet3!$AD$2:$AD$19</definedName>
-    <definedName name="黑龙江省">Sheet3!$L$2:$L$14</definedName>
   </definedNames>
   <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
@@ -76,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2073" uniqueCount="1370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2103" uniqueCount="1383">
   <si>
     <t>学员姓名*(10字以内)</t>
   </si>
@@ -2166,6 +2171,7 @@
         <sz val="10"/>
         <color indexed="10"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>性别</t>
@@ -2188,6 +2194,7 @@
         <b/>
         <sz val="10"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>英文名字</t>
@@ -2206,6 +2213,7 @@
         <b/>
         <sz val="10"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>字符以内</t>
@@ -2240,6 +2248,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>工程技术研究中心</t>
@@ -2247,7 +2256,7 @@
   </si>
   <si>
     <t>清华大学</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2256,6 +2265,7 @@
         <sz val="10"/>
         <color indexed="10"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>发证机关</t>
@@ -3077,6 +3087,7 @@
         <sz val="10"/>
         <color indexed="10"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>国籍</t>
@@ -3111,6 +3122,7 @@
         <sz val="10"/>
         <color indexed="10"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>单位及具体职务</t>
@@ -3131,6 +3143,7 @@
         <sz val="10"/>
         <color indexed="10"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>字以内</t>
@@ -3154,6 +3167,7 @@
         <sz val="10"/>
         <color indexed="10"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>职务级别</t>
@@ -3197,30 +3211,30 @@
   </si>
   <si>
     <t>李延成</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>37050219630622325X</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>中国</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>0546-8060136</t>
   </si>
   <si>
     <t>东营职业学院/院长</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>东营市东营区府前大街129号</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>dyxyszb@163.com</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>姓  名</t>
@@ -3248,11 +3262,11 @@
   </si>
   <si>
     <t>职务（职称）</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>联系电话（手机）</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>110108197912168919</t>
@@ -3262,7 +3276,7 @@
   </si>
   <si>
     <t>单位</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>北京科技大学工程训练中心</t>
@@ -3329,6 +3343,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>姓</t>
@@ -3337,235 +3352,236 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>名</t>
     </r>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>性别</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>民族</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>学历</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>职务（职称）</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>联系电话（手机）</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>身份证号码</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Email</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>固定电话</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>男</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>本科</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>工程师</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>142402197804044519</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>北京科技大学工程训练中心</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>卢胜利</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>汉</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>研究生</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>022-28114592</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>朱民</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>硕士</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>高工</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>360103196112112212</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>0791-86453359</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>副教授</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>230602197210045718</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>zhksong@bjtu.edu.cn</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>010-51684024</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>魏德强</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>示范中心主任/教授</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>231026196301231537</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>桂林电子科技大学</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>田杰</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>博士</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>340104196801201010</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>合肥工业大学</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>张文建</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>中心主任教授</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>130603195711045779</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>华北电力大学</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>zhangwenjiancn@163.com</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>房静</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>女</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>130602197307070625</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>文西芹</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>研究生/博士</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>教授</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>302705196209013518</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>淮海工学院工程训练中心</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>xqw999_1@163.com</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>0518－85895301</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>朱瑞富</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>中心主任教授、博导</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>370102195902103330</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>山东大学工程训练中心</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>ruifuzh@sdu.edu.cn</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>0531-86358503</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>主任、教授</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>上海大学</t>
@@ -3599,49 +3615,50 @@
   </si>
   <si>
     <t>王建武</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>本科</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>wjw_xlzx@sian.com</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>010-62332990</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>640103195612171836</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>lsl5612@163.com</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>南昌航空大学工程训练中心</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>zhumin01@sina.com</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>宋志坤</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>北京交通大学</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>主任</t>
@@ -3658,183 +3675,184 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>教授</t>
     </r>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>实验室主任</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>胡庆夕</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>男</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>汉</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>主任、教授</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>410802195909302517</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>上海大学</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>王杰</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>51010219640204845X</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>四川大学</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>wangjie@scu.edu.cn</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>028-85463101</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>于松章</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>14010319640428631X</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>太原工业学院工程训练中心</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>gchxlzhx@163.com</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>0351-3566066</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>王晶</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>汉族</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>研究生</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>主任/教授</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>610103195811012453</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>西安交通大学工程坊</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>jwang@mail.xjtu.edu.cn</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>029-82664564</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>尹显明</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>男</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>汉</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>510702196206130512</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>西南科技大学</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>yinxianming@swust.edu.cn</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>0816-2419266</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>周继烈</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>硕士</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>中心常务、副教授</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>330106195808050434</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>浙江大学</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>徐志农</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>330106196204300417</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>张鹏</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>中心主任（教授）</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>12011019630328039x</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>中国民航大学</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>首都经济贸易大学</t>
@@ -3850,11 +3868,11 @@
   </si>
   <si>
     <t>天津职业技术师范大学工程实训中心</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>教授，工程实践教育研究所常务副所长</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>张淘</t>
@@ -3942,7 +3960,7 @@
   </si>
   <si>
     <t>实验室主任</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>研究员</t>
@@ -3961,7 +3979,7 @@
   </si>
   <si>
     <t>陈言俊</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>宋晨霞</t>
@@ -4091,7 +4109,7 @@
   </si>
   <si>
     <t>副处长、教授</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>郭军</t>
@@ -4137,7 +4155,7 @@
   </si>
   <si>
     <t>主任、教授</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>江苏大学工程训练中心（工业中心）</t>
@@ -4204,7 +4222,7 @@
   </si>
   <si>
     <t>创新部主任</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>长春工业大学</t>
@@ -4235,7 +4253,7 @@
   </si>
   <si>
     <t>0431-85582229</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>张英琦</t>
@@ -4428,7 +4446,7 @@
   </si>
   <si>
     <t>0871-65916769</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>腾宝仁</t>
@@ -4462,7 +4480,7 @@
   </si>
   <si>
     <t>0511-88780260</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>梁键</t>
@@ -4478,7 +4496,7 @@
   </si>
   <si>
     <t>工程训练中心主任、教授</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>刘红梅</t>
@@ -4488,17 +4506,18 @@
   </si>
   <si>
     <t>中心主任、教授</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>中心副主任、教授</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>南通大学</t>
@@ -4507,11 +4526,12 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>工程训练中心</t>
     </r>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>董艇舰</t>
@@ -4581,11 +4601,11 @@
   </si>
   <si>
     <t>中国农业大学</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>zhangbin64@cau.edu.cn</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>孙善学</t>
@@ -4610,7 +4630,7 @@
   </si>
   <si>
     <t>学生处就业指导中心副主任</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>尚长春</t>
@@ -4677,7 +4697,7 @@
   </si>
   <si>
     <t>021-67791245</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>李疆</t>
@@ -4798,12 +4818,79 @@
   <si>
     <t>助理工程师</t>
   </si>
+  <si>
+    <t>张鬲君</t>
+  </si>
+  <si>
+    <t>410112196210220031</t>
+  </si>
+  <si>
+    <t>硕士</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>主任</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>教授</t>
+    </r>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>中原工学院</t>
+  </si>
+  <si>
+    <t>throneaurum@163.com</t>
+  </si>
+  <si>
+    <t>0371-62506655</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>谢志余</t>
+  </si>
+  <si>
+    <t>主任/高工</t>
+  </si>
+  <si>
+    <t>320503196212132514</t>
+  </si>
+  <si>
+    <t>苏州大学工程训练中心</t>
+  </si>
+  <si>
+    <t>李强伟</t>
+  </si>
+  <si>
+    <t>132302197609250336</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="37" x14ac:knownFonts="1">
+  <fonts count="30">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -4838,26 +4925,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color indexed="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color indexed="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -4873,35 +4940,7 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="10"/>
-      <color indexed="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color indexed="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color indexed="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color indexed="10"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -4912,20 +4951,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color indexed="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color indexed="10"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -4980,11 +5005,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
@@ -5013,6 +5033,27 @@
       <sz val="10"/>
       <name val="Lantinghei SC Heavy"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -5056,22 +5097,22 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
@@ -5084,11 +5125,11 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5099,29 +5140,29 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -5133,65 +5174,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
     <cellStyle name="常规 4" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -5203,7 +5321,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="F0FFC8"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -5517,25 +5635,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J52"/>
+  <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46:J52"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="H54" sqref="H54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="2" max="3" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.83203125" style="44" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="34.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.85546875" style="44" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="13">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>947</v>
       </c>
@@ -5721,7 +5839,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="13">
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
         <v>978</v>
       </c>
@@ -6182,7 +6300,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="13">
+    <row r="23" spans="1:10">
       <c r="A23" t="s">
         <v>1160</v>
       </c>
@@ -6912,7 +7030,7 @@
         <v>1337</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="15">
+    <row r="50" spans="1:10">
       <c r="A50" t="s">
         <v>1338</v>
       </c>
@@ -6996,8 +7114,66 @@
         <v>1359</v>
       </c>
     </row>
+    <row r="53" spans="1:10">
+      <c r="A53" t="s">
+        <v>1370</v>
+      </c>
+      <c r="B53" t="s">
+        <v>527</v>
+      </c>
+      <c r="C53" t="s">
+        <v>920</v>
+      </c>
+      <c r="D53" s="47" t="s">
+        <v>1372</v>
+      </c>
+      <c r="E53" t="s">
+        <v>1373</v>
+      </c>
+      <c r="F53">
+        <v>13608698280</v>
+      </c>
+      <c r="G53" s="44" t="s">
+        <v>1371</v>
+      </c>
+      <c r="H53" t="s">
+        <v>1374</v>
+      </c>
+      <c r="I53" t="s">
+        <v>1375</v>
+      </c>
+      <c r="J53" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" t="s">
+        <v>1377</v>
+      </c>
+      <c r="B54" t="s">
+        <v>527</v>
+      </c>
+      <c r="C54" t="s">
+        <v>920</v>
+      </c>
+      <c r="D54" t="s">
+        <v>591</v>
+      </c>
+      <c r="E54" t="s">
+        <v>1378</v>
+      </c>
+      <c r="F54">
+        <v>13913557322</v>
+      </c>
+      <c r="G54" s="44" t="s">
+        <v>1379</v>
+      </c>
+      <c r="H54" t="s">
+        <v>1380</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="28" type="noConversion"/>
+  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <extLst>
@@ -7010,24 +7186,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H81"/>
+  <dimension ref="A1:H83"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="A75" sqref="A75:H81"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="H83" sqref="H83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="6.5" customWidth="1"/>
-    <col min="2" max="3" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.83203125" style="44" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="36.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.42578125" customWidth="1"/>
+    <col min="2" max="3" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.85546875" style="44" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="36.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="13">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>914</v>
       </c>
@@ -7474,7 +7650,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="13">
+    <row r="19" spans="1:8">
       <c r="A19" s="45" t="s">
         <v>1108</v>
       </c>
@@ -8628,7 +8804,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="13">
+    <row r="65" spans="1:8">
       <c r="A65" t="s">
         <v>1276</v>
       </c>
@@ -8654,7 +8830,7 @@
         <v>1283</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="13">
+    <row r="66" spans="1:8">
       <c r="A66" t="s">
         <v>1279</v>
       </c>
@@ -8856,7 +9032,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="13">
+    <row r="74" spans="1:8">
       <c r="A74" t="s">
         <v>1338</v>
       </c>
@@ -9064,8 +9240,60 @@
         <v>1359</v>
       </c>
     </row>
+    <row r="82" spans="1:8">
+      <c r="A82" t="s">
+        <v>1370</v>
+      </c>
+      <c r="B82" t="s">
+        <v>527</v>
+      </c>
+      <c r="C82" t="s">
+        <v>920</v>
+      </c>
+      <c r="D82" s="47" t="s">
+        <v>1372</v>
+      </c>
+      <c r="E82" t="s">
+        <v>1373</v>
+      </c>
+      <c r="F82">
+        <v>13608698280</v>
+      </c>
+      <c r="G82" s="44" t="s">
+        <v>1371</v>
+      </c>
+      <c r="H82" t="s">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" t="s">
+        <v>1381</v>
+      </c>
+      <c r="B83" t="s">
+        <v>527</v>
+      </c>
+      <c r="C83" t="s">
+        <v>920</v>
+      </c>
+      <c r="D83" t="s">
+        <v>593</v>
+      </c>
+      <c r="E83" t="s">
+        <v>1120</v>
+      </c>
+      <c r="F83">
+        <v>13862152089</v>
+      </c>
+      <c r="G83" s="44" t="s">
+        <v>1382</v>
+      </c>
+      <c r="H83" t="s">
+        <v>1380</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="22" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <extLst>
@@ -9078,7 +9306,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:V151"/>
@@ -9087,25 +9315,25 @@
       <selection sqref="A1:V1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="23.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="22.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="23.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="26.5" style="8" customWidth="1"/>
-    <col min="6" max="9" width="13.6640625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="17.5" style="2" customWidth="1"/>
-    <col min="11" max="14" width="13.6640625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="26.5" style="2" customWidth="1"/>
-    <col min="16" max="16" width="22.5" style="2" customWidth="1"/>
-    <col min="17" max="17" width="17.6640625" style="2" customWidth="1"/>
-    <col min="18" max="18" width="29.83203125" style="2" customWidth="1"/>
-    <col min="19" max="19" width="26.83203125" style="2" customWidth="1"/>
-    <col min="20" max="20" width="26.5" style="16" customWidth="1"/>
-    <col min="21" max="21" width="13.6640625" style="8" customWidth="1"/>
-    <col min="22" max="22" width="26.5" style="2" customWidth="1"/>
-    <col min="23" max="16384" width="9.1640625" style="2"/>
+    <col min="1" max="1" width="23.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="26.42578125" style="8" customWidth="1"/>
+    <col min="6" max="9" width="13.7109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="17.42578125" style="2" customWidth="1"/>
+    <col min="11" max="14" width="13.7109375" style="2" customWidth="1"/>
+    <col min="15" max="15" width="26.42578125" style="2" customWidth="1"/>
+    <col min="16" max="16" width="22.42578125" style="2" customWidth="1"/>
+    <col min="17" max="17" width="17.7109375" style="2" customWidth="1"/>
+    <col min="18" max="18" width="29.85546875" style="2" customWidth="1"/>
+    <col min="19" max="19" width="26.85546875" style="2" customWidth="1"/>
+    <col min="20" max="20" width="26.42578125" style="16" customWidth="1"/>
+    <col min="21" max="21" width="13.7109375" style="8" customWidth="1"/>
+    <col min="22" max="22" width="26.42578125" style="2" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="6" customFormat="1" ht="15" customHeight="1">
@@ -12731,13 +12959,13 @@
       <selection activeCell="AL13" sqref="AL13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="7" max="7" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="13">
+    <row r="1" spans="1:37">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -12850,7 +13078,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="2" spans="1:37" ht="13">
+    <row r="2" spans="1:37">
       <c r="A2" t="s">
         <v>50</v>
       </c>
@@ -12960,7 +13188,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="3" spans="1:37" ht="13">
+    <row r="3" spans="1:37">
       <c r="A3" t="s">
         <v>84</v>
       </c>
@@ -13070,7 +13298,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="4" spans="1:37" ht="13">
+    <row r="4" spans="1:37">
       <c r="A4" t="s">
         <v>118</v>
       </c>
@@ -13180,7 +13408,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="5" spans="1:37" ht="13">
+    <row r="5" spans="1:37">
       <c r="A5" t="s">
         <v>152</v>
       </c>
@@ -13290,7 +13518,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="6" spans="1:37" ht="13">
+    <row r="6" spans="1:37">
       <c r="A6" t="s">
         <v>186</v>
       </c>
@@ -13400,7 +13628,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="7" spans="1:37" ht="13">
+    <row r="7" spans="1:37">
       <c r="A7" t="s">
         <v>220</v>
       </c>
@@ -13507,7 +13735,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="8" spans="1:37" ht="13">
+    <row r="8" spans="1:37">
       <c r="A8" t="s">
         <v>253</v>
       </c>
@@ -13612,7 +13840,7 @@
       </c>
       <c r="AK8" s="12"/>
     </row>
-    <row r="9" spans="1:37" ht="13">
+    <row r="9" spans="1:37">
       <c r="A9" t="s">
         <v>286</v>
       </c>
@@ -13714,7 +13942,7 @@
       </c>
       <c r="AK9" s="12"/>
     </row>
-    <row r="10" spans="1:37" ht="13">
+    <row r="10" spans="1:37">
       <c r="A10" t="s">
         <v>318</v>
       </c>
@@ -13810,7 +14038,7 @@
       </c>
       <c r="AK10" s="12"/>
     </row>
-    <row r="11" spans="1:37" ht="13">
+    <row r="11" spans="1:37">
       <c r="A11" t="s">
         <v>348</v>
       </c>
@@ -13897,7 +14125,7 @@
       </c>
       <c r="AK11" s="12"/>
     </row>
-    <row r="12" spans="1:37" ht="13">
+    <row r="12" spans="1:37">
       <c r="A12" t="s">
         <v>375</v>
       </c>
@@ -13981,7 +14209,7 @@
       </c>
       <c r="AK12" s="12"/>
     </row>
-    <row r="13" spans="1:37" ht="13">
+    <row r="13" spans="1:37">
       <c r="A13" t="s">
         <v>401</v>
       </c>
@@ -14053,7 +14281,7 @@
       </c>
       <c r="AK13" s="12"/>
     </row>
-    <row r="14" spans="1:37" ht="13">
+    <row r="14" spans="1:37">
       <c r="A14" t="s">
         <v>423</v>
       </c>
@@ -14121,7 +14349,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="15" spans="1:37" ht="13">
+    <row r="15" spans="1:37">
       <c r="A15" t="s">
         <v>443</v>
       </c>
@@ -14183,7 +14411,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="16" spans="1:37" ht="13">
+    <row r="16" spans="1:37">
       <c r="A16" t="s">
         <v>462</v>
       </c>
@@ -14233,7 +14461,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="17" spans="1:36" ht="13">
+    <row r="17" spans="1:36">
       <c r="A17" t="s">
         <v>477</v>
       </c>
@@ -14283,7 +14511,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="18" spans="1:36" ht="13">
+    <row r="18" spans="1:36">
       <c r="A18" t="s">
         <v>492</v>
       </c>
@@ -14330,7 +14558,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="19" spans="1:36" ht="13">
+    <row r="19" spans="1:36">
       <c r="C19" t="s">
         <v>506</v>
       </c>
@@ -14366,7 +14594,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="20" spans="1:36" ht="13">
+    <row r="20" spans="1:36">
       <c r="F20" t="s">
         <v>516</v>
       </c>
@@ -14386,7 +14614,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="21" spans="1:36" ht="13">
+    <row r="21" spans="1:36">
       <c r="F21" t="s">
         <v>521</v>
       </c>
@@ -14400,7 +14628,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="22" spans="1:36" ht="13">
+    <row r="22" spans="1:36">
       <c r="F22" t="s">
         <v>524</v>
       </c>
@@ -14414,877 +14642,877 @@
         <v>873</v>
       </c>
     </row>
-    <row r="23" spans="1:36" ht="13">
+    <row r="23" spans="1:36">
       <c r="AJ23" s="12" t="s">
         <v>872</v>
       </c>
     </row>
-    <row r="24" spans="1:36" ht="13">
+    <row r="24" spans="1:36">
       <c r="AJ24" s="12" t="s">
         <v>871</v>
       </c>
     </row>
-    <row r="25" spans="1:36" ht="13">
+    <row r="25" spans="1:36">
       <c r="AJ25" s="12" t="s">
         <v>870</v>
       </c>
     </row>
-    <row r="26" spans="1:36" ht="13">
+    <row r="26" spans="1:36">
       <c r="AJ26" s="12" t="s">
         <v>869</v>
       </c>
     </row>
-    <row r="27" spans="1:36" ht="13">
+    <row r="27" spans="1:36">
       <c r="AJ27" s="12" t="s">
         <v>868</v>
       </c>
     </row>
-    <row r="28" spans="1:36" ht="13">
+    <row r="28" spans="1:36">
       <c r="AJ28" s="12" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="29" spans="1:36" ht="13">
+    <row r="29" spans="1:36">
       <c r="AJ29" s="12" t="s">
         <v>866</v>
       </c>
     </row>
-    <row r="30" spans="1:36" ht="13">
+    <row r="30" spans="1:36">
       <c r="AJ30" s="12" t="s">
         <v>865</v>
       </c>
     </row>
-    <row r="31" spans="1:36" ht="13">
+    <row r="31" spans="1:36">
       <c r="AJ31" s="12" t="s">
         <v>864</v>
       </c>
     </row>
-    <row r="32" spans="1:36" ht="13">
+    <row r="32" spans="1:36">
       <c r="AJ32" s="12" t="s">
         <v>863</v>
       </c>
     </row>
-    <row r="33" spans="36:36" ht="13">
+    <row r="33" spans="36:36">
       <c r="AJ33" s="12" t="s">
         <v>862</v>
       </c>
     </row>
-    <row r="34" spans="36:36" ht="13">
+    <row r="34" spans="36:36">
       <c r="AJ34" s="12" t="s">
         <v>861</v>
       </c>
     </row>
-    <row r="35" spans="36:36" ht="13">
+    <row r="35" spans="36:36">
       <c r="AJ35" s="12" t="s">
         <v>860</v>
       </c>
     </row>
-    <row r="36" spans="36:36" ht="13">
+    <row r="36" spans="36:36">
       <c r="AJ36" s="12" t="s">
         <v>859</v>
       </c>
     </row>
-    <row r="37" spans="36:36" ht="13">
+    <row r="37" spans="36:36">
       <c r="AJ37" s="12" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="38" spans="36:36" ht="13">
+    <row r="38" spans="36:36">
       <c r="AJ38" s="12" t="s">
         <v>857</v>
       </c>
     </row>
-    <row r="39" spans="36:36" ht="13">
+    <row r="39" spans="36:36">
       <c r="AJ39" s="12" t="s">
         <v>856</v>
       </c>
     </row>
-    <row r="40" spans="36:36" ht="13">
+    <row r="40" spans="36:36">
       <c r="AJ40" s="12" t="s">
         <v>855</v>
       </c>
     </row>
-    <row r="41" spans="36:36" ht="13">
+    <row r="41" spans="36:36">
       <c r="AJ41" s="12" t="s">
         <v>854</v>
       </c>
     </row>
-    <row r="42" spans="36:36" ht="13">
+    <row r="42" spans="36:36">
       <c r="AJ42" s="12" t="s">
         <v>853</v>
       </c>
     </row>
-    <row r="43" spans="36:36" ht="13">
+    <row r="43" spans="36:36">
       <c r="AJ43" s="12" t="s">
         <v>852</v>
       </c>
     </row>
-    <row r="44" spans="36:36" ht="13">
+    <row r="44" spans="36:36">
       <c r="AJ44" s="12" t="s">
         <v>851</v>
       </c>
     </row>
-    <row r="45" spans="36:36" ht="13">
+    <row r="45" spans="36:36">
       <c r="AJ45" s="12" t="s">
         <v>850</v>
       </c>
     </row>
-    <row r="46" spans="36:36" ht="13">
+    <row r="46" spans="36:36">
       <c r="AJ46" s="12" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="47" spans="36:36" ht="13">
+    <row r="47" spans="36:36">
       <c r="AJ47" s="12" t="s">
         <v>848</v>
       </c>
     </row>
-    <row r="48" spans="36:36" ht="13">
+    <row r="48" spans="36:36">
       <c r="AJ48" s="12" t="s">
         <v>847</v>
       </c>
     </row>
-    <row r="49" spans="36:36" ht="13">
+    <row r="49" spans="36:36">
       <c r="AJ49" s="12" t="s">
         <v>846</v>
       </c>
     </row>
-    <row r="50" spans="36:36" ht="13">
+    <row r="50" spans="36:36">
       <c r="AJ50" s="12" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="51" spans="36:36" ht="13">
+    <row r="51" spans="36:36">
       <c r="AJ51" s="12" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="52" spans="36:36" ht="13">
+    <row r="52" spans="36:36">
       <c r="AJ52" s="12" t="s">
         <v>843</v>
       </c>
     </row>
-    <row r="53" spans="36:36" ht="13">
+    <row r="53" spans="36:36">
       <c r="AJ53" s="12" t="s">
         <v>842</v>
       </c>
     </row>
-    <row r="54" spans="36:36" ht="13">
+    <row r="54" spans="36:36">
       <c r="AJ54" s="12" t="s">
         <v>841</v>
       </c>
     </row>
-    <row r="55" spans="36:36" ht="13">
+    <row r="55" spans="36:36">
       <c r="AJ55" s="12" t="s">
         <v>840</v>
       </c>
     </row>
-    <row r="56" spans="36:36" ht="13">
+    <row r="56" spans="36:36">
       <c r="AJ56" s="12" t="s">
         <v>839</v>
       </c>
     </row>
-    <row r="57" spans="36:36" ht="13">
+    <row r="57" spans="36:36">
       <c r="AJ57" s="12" t="s">
         <v>838</v>
       </c>
     </row>
-    <row r="58" spans="36:36" ht="13">
+    <row r="58" spans="36:36">
       <c r="AJ58" s="12" t="s">
         <v>837</v>
       </c>
     </row>
-    <row r="59" spans="36:36" ht="13">
+    <row r="59" spans="36:36">
       <c r="AJ59" s="12" t="s">
         <v>836</v>
       </c>
     </row>
-    <row r="60" spans="36:36" ht="13">
+    <row r="60" spans="36:36">
       <c r="AJ60" s="12" t="s">
         <v>835</v>
       </c>
     </row>
-    <row r="61" spans="36:36" ht="13">
+    <row r="61" spans="36:36">
       <c r="AJ61" s="12" t="s">
         <v>834</v>
       </c>
     </row>
-    <row r="62" spans="36:36" ht="13">
+    <row r="62" spans="36:36">
       <c r="AJ62" s="12" t="s">
         <v>833</v>
       </c>
     </row>
-    <row r="63" spans="36:36" ht="13">
+    <row r="63" spans="36:36">
       <c r="AJ63" s="12" t="s">
         <v>832</v>
       </c>
     </row>
-    <row r="64" spans="36:36" ht="13">
+    <row r="64" spans="36:36">
       <c r="AJ64" s="12" t="s">
         <v>831</v>
       </c>
     </row>
-    <row r="65" spans="36:36" ht="13">
+    <row r="65" spans="36:36">
       <c r="AJ65" s="12" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="66" spans="36:36" ht="13">
+    <row r="66" spans="36:36">
       <c r="AJ66" s="12" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="67" spans="36:36" ht="13">
+    <row r="67" spans="36:36">
       <c r="AJ67" s="12" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="68" spans="36:36" ht="13">
+    <row r="68" spans="36:36">
       <c r="AJ68" s="12" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="69" spans="36:36" ht="13">
+    <row r="69" spans="36:36">
       <c r="AJ69" s="12" t="s">
         <v>826</v>
       </c>
     </row>
-    <row r="70" spans="36:36" ht="13">
+    <row r="70" spans="36:36">
       <c r="AJ70" s="12" t="s">
         <v>825</v>
       </c>
     </row>
-    <row r="71" spans="36:36" ht="13">
+    <row r="71" spans="36:36">
       <c r="AJ71" s="12" t="s">
         <v>824</v>
       </c>
     </row>
-    <row r="72" spans="36:36" ht="13">
+    <row r="72" spans="36:36">
       <c r="AJ72" s="12" t="s">
         <v>823</v>
       </c>
     </row>
-    <row r="73" spans="36:36" ht="13">
+    <row r="73" spans="36:36">
       <c r="AJ73" s="12" t="s">
         <v>822</v>
       </c>
     </row>
-    <row r="74" spans="36:36" ht="13">
+    <row r="74" spans="36:36">
       <c r="AJ74" s="12" t="s">
         <v>821</v>
       </c>
     </row>
-    <row r="75" spans="36:36" ht="13">
+    <row r="75" spans="36:36">
       <c r="AJ75" s="12" t="s">
         <v>820</v>
       </c>
     </row>
-    <row r="76" spans="36:36" ht="13">
+    <row r="76" spans="36:36">
       <c r="AJ76" s="12" t="s">
         <v>819</v>
       </c>
     </row>
-    <row r="77" spans="36:36" ht="13">
+    <row r="77" spans="36:36">
       <c r="AJ77" s="12" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="78" spans="36:36" ht="13">
+    <row r="78" spans="36:36">
       <c r="AJ78" s="12" t="s">
         <v>817</v>
       </c>
     </row>
-    <row r="79" spans="36:36" ht="13">
+    <row r="79" spans="36:36">
       <c r="AJ79" s="12" t="s">
         <v>816</v>
       </c>
     </row>
-    <row r="80" spans="36:36" ht="13">
+    <row r="80" spans="36:36">
       <c r="AJ80" s="12" t="s">
         <v>815</v>
       </c>
     </row>
-    <row r="81" spans="36:36" ht="13">
+    <row r="81" spans="36:36">
       <c r="AJ81" s="12" t="s">
         <v>814</v>
       </c>
     </row>
-    <row r="82" spans="36:36" ht="13">
+    <row r="82" spans="36:36">
       <c r="AJ82" s="12" t="s">
         <v>813</v>
       </c>
     </row>
-    <row r="83" spans="36:36" ht="13">
+    <row r="83" spans="36:36">
       <c r="AJ83" s="12" t="s">
         <v>812</v>
       </c>
     </row>
-    <row r="84" spans="36:36" ht="13">
+    <row r="84" spans="36:36">
       <c r="AJ84" s="12" t="s">
         <v>811</v>
       </c>
     </row>
-    <row r="85" spans="36:36" ht="13">
+    <row r="85" spans="36:36">
       <c r="AJ85" s="12" t="s">
         <v>810</v>
       </c>
     </row>
-    <row r="86" spans="36:36" ht="13">
+    <row r="86" spans="36:36">
       <c r="AJ86" s="12" t="s">
         <v>809</v>
       </c>
     </row>
-    <row r="87" spans="36:36" ht="13">
+    <row r="87" spans="36:36">
       <c r="AJ87" s="12" t="s">
         <v>808</v>
       </c>
     </row>
-    <row r="88" spans="36:36" ht="13">
+    <row r="88" spans="36:36">
       <c r="AJ88" s="12" t="s">
         <v>807</v>
       </c>
     </row>
-    <row r="89" spans="36:36" ht="13">
+    <row r="89" spans="36:36">
       <c r="AJ89" s="12" t="s">
         <v>806</v>
       </c>
     </row>
-    <row r="90" spans="36:36" ht="13">
+    <row r="90" spans="36:36">
       <c r="AJ90" s="12" t="s">
         <v>805</v>
       </c>
     </row>
-    <row r="91" spans="36:36" ht="13">
+    <row r="91" spans="36:36">
       <c r="AJ91" s="12" t="s">
         <v>804</v>
       </c>
     </row>
-    <row r="92" spans="36:36" ht="13">
+    <row r="92" spans="36:36">
       <c r="AJ92" s="12" t="s">
         <v>803</v>
       </c>
     </row>
-    <row r="93" spans="36:36" ht="13">
+    <row r="93" spans="36:36">
       <c r="AJ93" s="12" t="s">
         <v>802</v>
       </c>
     </row>
-    <row r="94" spans="36:36" ht="13">
+    <row r="94" spans="36:36">
       <c r="AJ94" s="12" t="s">
         <v>801</v>
       </c>
     </row>
-    <row r="95" spans="36:36" ht="13">
+    <row r="95" spans="36:36">
       <c r="AJ95" s="12" t="s">
         <v>800</v>
       </c>
     </row>
-    <row r="96" spans="36:36" ht="13">
+    <row r="96" spans="36:36">
       <c r="AJ96" s="12" t="s">
         <v>799</v>
       </c>
     </row>
-    <row r="97" spans="36:36" ht="13">
+    <row r="97" spans="36:36">
       <c r="AJ97" s="12" t="s">
         <v>798</v>
       </c>
     </row>
-    <row r="98" spans="36:36" ht="13">
+    <row r="98" spans="36:36">
       <c r="AJ98" s="12" t="s">
         <v>797</v>
       </c>
     </row>
-    <row r="99" spans="36:36" ht="13">
+    <row r="99" spans="36:36">
       <c r="AJ99" s="12" t="s">
         <v>796</v>
       </c>
     </row>
-    <row r="100" spans="36:36" ht="13">
+    <row r="100" spans="36:36">
       <c r="AJ100" s="12" t="s">
         <v>795</v>
       </c>
     </row>
-    <row r="101" spans="36:36" ht="13">
+    <row r="101" spans="36:36">
       <c r="AJ101" s="12" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="102" spans="36:36" ht="13">
+    <row r="102" spans="36:36">
       <c r="AJ102" s="12" t="s">
         <v>793</v>
       </c>
     </row>
-    <row r="103" spans="36:36" ht="13">
+    <row r="103" spans="36:36">
       <c r="AJ103" s="12" t="s">
         <v>792</v>
       </c>
     </row>
-    <row r="104" spans="36:36" ht="13">
+    <row r="104" spans="36:36">
       <c r="AJ104" s="12" t="s">
         <v>791</v>
       </c>
     </row>
-    <row r="105" spans="36:36" ht="13">
+    <row r="105" spans="36:36">
       <c r="AJ105" s="12" t="s">
         <v>790</v>
       </c>
     </row>
-    <row r="106" spans="36:36" ht="13">
+    <row r="106" spans="36:36">
       <c r="AJ106" s="12" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="107" spans="36:36" ht="13">
+    <row r="107" spans="36:36">
       <c r="AJ107" s="12" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="108" spans="36:36" ht="13">
+    <row r="108" spans="36:36">
       <c r="AJ108" s="12" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="109" spans="36:36" ht="13">
+    <row r="109" spans="36:36">
       <c r="AJ109" s="12" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="110" spans="36:36" ht="13">
+    <row r="110" spans="36:36">
       <c r="AJ110" s="12" t="s">
         <v>785</v>
       </c>
     </row>
-    <row r="111" spans="36:36" ht="13">
+    <row r="111" spans="36:36">
       <c r="AJ111" s="12" t="s">
         <v>784</v>
       </c>
     </row>
-    <row r="112" spans="36:36" ht="13">
+    <row r="112" spans="36:36">
       <c r="AJ112" s="12" t="s">
         <v>783</v>
       </c>
     </row>
-    <row r="113" spans="36:36" ht="13">
+    <row r="113" spans="36:36">
       <c r="AJ113" s="12" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="114" spans="36:36" ht="13">
+    <row r="114" spans="36:36">
       <c r="AJ114" s="12" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="115" spans="36:36" ht="13">
+    <row r="115" spans="36:36">
       <c r="AJ115" s="12" t="s">
         <v>780</v>
       </c>
     </row>
-    <row r="116" spans="36:36" ht="13">
+    <row r="116" spans="36:36">
       <c r="AJ116" s="12" t="s">
         <v>779</v>
       </c>
     </row>
-    <row r="117" spans="36:36" ht="13">
+    <row r="117" spans="36:36">
       <c r="AJ117" s="12" t="s">
         <v>778</v>
       </c>
     </row>
-    <row r="118" spans="36:36" ht="13">
+    <row r="118" spans="36:36">
       <c r="AJ118" s="12" t="s">
         <v>777</v>
       </c>
     </row>
-    <row r="119" spans="36:36" ht="13">
+    <row r="119" spans="36:36">
       <c r="AJ119" s="12" t="s">
         <v>776</v>
       </c>
     </row>
-    <row r="120" spans="36:36" ht="13">
+    <row r="120" spans="36:36">
       <c r="AJ120" s="12" t="s">
         <v>775</v>
       </c>
     </row>
-    <row r="121" spans="36:36" ht="13">
+    <row r="121" spans="36:36">
       <c r="AJ121" s="12" t="s">
         <v>774</v>
       </c>
     </row>
-    <row r="122" spans="36:36" ht="13">
+    <row r="122" spans="36:36">
       <c r="AJ122" s="12" t="s">
         <v>773</v>
       </c>
     </row>
-    <row r="123" spans="36:36" ht="13">
+    <row r="123" spans="36:36">
       <c r="AJ123" s="12" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="124" spans="36:36" ht="13">
+    <row r="124" spans="36:36">
       <c r="AJ124" s="12" t="s">
         <v>771</v>
       </c>
     </row>
-    <row r="125" spans="36:36" ht="13">
+    <row r="125" spans="36:36">
       <c r="AJ125" s="12" t="s">
         <v>770</v>
       </c>
     </row>
-    <row r="126" spans="36:36" ht="13">
+    <row r="126" spans="36:36">
       <c r="AJ126" s="12" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="127" spans="36:36" ht="13">
+    <row r="127" spans="36:36">
       <c r="AJ127" s="12" t="s">
         <v>768</v>
       </c>
     </row>
-    <row r="128" spans="36:36" ht="13">
+    <row r="128" spans="36:36">
       <c r="AJ128" s="12" t="s">
         <v>767</v>
       </c>
     </row>
-    <row r="129" spans="36:36" ht="13">
+    <row r="129" spans="36:36">
       <c r="AJ129" s="12" t="s">
         <v>766</v>
       </c>
     </row>
-    <row r="130" spans="36:36" ht="13">
+    <row r="130" spans="36:36">
       <c r="AJ130" s="12" t="s">
         <v>765</v>
       </c>
     </row>
-    <row r="131" spans="36:36" ht="13">
+    <row r="131" spans="36:36">
       <c r="AJ131" s="12" t="s">
         <v>764</v>
       </c>
     </row>
-    <row r="132" spans="36:36" ht="13">
+    <row r="132" spans="36:36">
       <c r="AJ132" s="12" t="s">
         <v>763</v>
       </c>
     </row>
-    <row r="133" spans="36:36" ht="13">
+    <row r="133" spans="36:36">
       <c r="AJ133" s="12" t="s">
         <v>762</v>
       </c>
     </row>
-    <row r="134" spans="36:36" ht="13">
+    <row r="134" spans="36:36">
       <c r="AJ134" s="12" t="s">
         <v>761</v>
       </c>
     </row>
-    <row r="135" spans="36:36" ht="13">
+    <row r="135" spans="36:36">
       <c r="AJ135" s="12" t="s">
         <v>760</v>
       </c>
     </row>
-    <row r="136" spans="36:36" ht="13">
+    <row r="136" spans="36:36">
       <c r="AJ136" s="12" t="s">
         <v>759</v>
       </c>
     </row>
-    <row r="137" spans="36:36" ht="13">
+    <row r="137" spans="36:36">
       <c r="AJ137" s="12" t="s">
         <v>758</v>
       </c>
     </row>
-    <row r="138" spans="36:36" ht="13">
+    <row r="138" spans="36:36">
       <c r="AJ138" s="12" t="s">
         <v>757</v>
       </c>
     </row>
-    <row r="139" spans="36:36" ht="13">
+    <row r="139" spans="36:36">
       <c r="AJ139" s="12" t="s">
         <v>756</v>
       </c>
     </row>
-    <row r="140" spans="36:36" ht="13">
+    <row r="140" spans="36:36">
       <c r="AJ140" s="12" t="s">
         <v>755</v>
       </c>
     </row>
-    <row r="141" spans="36:36" ht="13">
+    <row r="141" spans="36:36">
       <c r="AJ141" s="12" t="s">
         <v>754</v>
       </c>
     </row>
-    <row r="142" spans="36:36" ht="13">
+    <row r="142" spans="36:36">
       <c r="AJ142" s="12" t="s">
         <v>753</v>
       </c>
     </row>
-    <row r="143" spans="36:36" ht="13">
+    <row r="143" spans="36:36">
       <c r="AJ143" s="12" t="s">
         <v>752</v>
       </c>
     </row>
-    <row r="144" spans="36:36" ht="13">
+    <row r="144" spans="36:36">
       <c r="AJ144" s="12" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="145" spans="36:36" ht="13">
+    <row r="145" spans="36:36">
       <c r="AJ145" s="12" t="s">
         <v>750</v>
       </c>
     </row>
-    <row r="146" spans="36:36" ht="13">
+    <row r="146" spans="36:36">
       <c r="AJ146" s="12" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="147" spans="36:36" ht="13">
+    <row r="147" spans="36:36">
       <c r="AJ147" s="12" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="148" spans="36:36" ht="13">
+    <row r="148" spans="36:36">
       <c r="AJ148" s="12" t="s">
         <v>747</v>
       </c>
     </row>
-    <row r="149" spans="36:36" ht="13">
+    <row r="149" spans="36:36">
       <c r="AJ149" s="12" t="s">
         <v>746</v>
       </c>
     </row>
-    <row r="150" spans="36:36" ht="13">
+    <row r="150" spans="36:36">
       <c r="AJ150" s="12" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="151" spans="36:36" ht="13">
+    <row r="151" spans="36:36">
       <c r="AJ151" s="12" t="s">
         <v>744</v>
       </c>
     </row>
-    <row r="152" spans="36:36" ht="13">
+    <row r="152" spans="36:36">
       <c r="AJ152" s="12" t="s">
         <v>743</v>
       </c>
     </row>
-    <row r="153" spans="36:36" ht="13">
+    <row r="153" spans="36:36">
       <c r="AJ153" s="12" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="154" spans="36:36" ht="13">
+    <row r="154" spans="36:36">
       <c r="AJ154" s="12" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="155" spans="36:36" ht="13">
+    <row r="155" spans="36:36">
       <c r="AJ155" s="12" t="s">
         <v>740</v>
       </c>
     </row>
-    <row r="156" spans="36:36" ht="13">
+    <row r="156" spans="36:36">
       <c r="AJ156" s="12" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="157" spans="36:36" ht="13">
+    <row r="157" spans="36:36">
       <c r="AJ157" s="12" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="158" spans="36:36" ht="13">
+    <row r="158" spans="36:36">
       <c r="AJ158" s="12" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="159" spans="36:36" ht="13">
+    <row r="159" spans="36:36">
       <c r="AJ159" s="12" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="160" spans="36:36" ht="13">
+    <row r="160" spans="36:36">
       <c r="AJ160" s="12" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="161" spans="36:36" ht="13">
+    <row r="161" spans="36:36">
       <c r="AJ161" s="12" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="162" spans="36:36" ht="13">
+    <row r="162" spans="36:36">
       <c r="AJ162" s="12" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="163" spans="36:36" ht="13">
+    <row r="163" spans="36:36">
       <c r="AJ163" s="12" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="164" spans="36:36" ht="13">
+    <row r="164" spans="36:36">
       <c r="AJ164" s="12" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="165" spans="36:36" ht="13">
+    <row r="165" spans="36:36">
       <c r="AJ165" s="12" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="166" spans="36:36" ht="13">
+    <row r="166" spans="36:36">
       <c r="AJ166" s="12" t="s">
         <v>729</v>
       </c>
     </row>
-    <row r="167" spans="36:36" ht="13">
+    <row r="167" spans="36:36">
       <c r="AJ167" s="12" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="168" spans="36:36" ht="13">
+    <row r="168" spans="36:36">
       <c r="AJ168" s="12" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="169" spans="36:36" ht="13">
+    <row r="169" spans="36:36">
       <c r="AJ169" s="12" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="170" spans="36:36" ht="13">
+    <row r="170" spans="36:36">
       <c r="AJ170" s="12" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="171" spans="36:36" ht="13">
+    <row r="171" spans="36:36">
       <c r="AJ171" s="12" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="172" spans="36:36" ht="13">
+    <row r="172" spans="36:36">
       <c r="AJ172" s="12" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="173" spans="36:36" ht="13">
+    <row r="173" spans="36:36">
       <c r="AJ173" s="12" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="174" spans="36:36" ht="13">
+    <row r="174" spans="36:36">
       <c r="AJ174" s="12" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="175" spans="36:36" ht="13">
+    <row r="175" spans="36:36">
       <c r="AJ175" s="12" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="176" spans="36:36" ht="13">
+    <row r="176" spans="36:36">
       <c r="AJ176" s="12" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="177" spans="36:36" ht="13">
+    <row r="177" spans="36:36">
       <c r="AJ177" s="12" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="178" spans="36:36" ht="13">
+    <row r="178" spans="36:36">
       <c r="AJ178" s="12" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="179" spans="36:36" ht="13">
+    <row r="179" spans="36:36">
       <c r="AJ179" s="12" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="180" spans="36:36" ht="13">
+    <row r="180" spans="36:36">
       <c r="AJ180" s="12" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="181" spans="36:36" ht="13">
+    <row r="181" spans="36:36">
       <c r="AJ181" s="12" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="182" spans="36:36" ht="13">
+    <row r="182" spans="36:36">
       <c r="AJ182" s="12" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="183" spans="36:36" ht="13">
+    <row r="183" spans="36:36">
       <c r="AJ183" s="12" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="184" spans="36:36" ht="13">
+    <row r="184" spans="36:36">
       <c r="AJ184" s="12" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="185" spans="36:36" ht="13">
+    <row r="185" spans="36:36">
       <c r="AJ185" s="12" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="186" spans="36:36" ht="13">
+    <row r="186" spans="36:36">
       <c r="AJ186" s="12" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="187" spans="36:36" ht="13">
+    <row r="187" spans="36:36">
       <c r="AJ187" s="12" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="188" spans="36:36" ht="13">
+    <row r="188" spans="36:36">
       <c r="AJ188" s="12" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="189" spans="36:36" ht="13">
+    <row r="189" spans="36:36">
       <c r="AJ189" s="12" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="190" spans="36:36" ht="13">
+    <row r="190" spans="36:36">
       <c r="AJ190" s="12" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="191" spans="36:36" ht="13">
+    <row r="191" spans="36:36">
       <c r="AJ191" s="12" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="192" spans="36:36" ht="13">
+    <row r="192" spans="36:36">
       <c r="AJ192" s="12" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="193" spans="36:36" ht="13">
+    <row r="193" spans="36:36">
       <c r="AJ193" s="12" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="194" spans="36:36" ht="13">
+    <row r="194" spans="36:36">
       <c r="AJ194" s="12" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="195" spans="36:36" ht="13">
+    <row r="195" spans="36:36">
       <c r="AJ195" s="12" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="196" spans="36:36" ht="13">
+    <row r="196" spans="36:36">
       <c r="AJ196" s="12" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="197" spans="36:36" ht="13">
+    <row r="197" spans="36:36">
       <c r="AJ197" s="12" t="s">
         <v>698</v>
       </c>
@@ -15309,7 +15537,7 @@
       <selection activeCell="AV21" sqref="AV21:AW21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <sheetData>
     <row r="3" spans="1:82">
       <c r="A3" t="s">
@@ -15327,7 +15555,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="7" spans="1:82" ht="13">
+    <row r="7" spans="1:82">
       <c r="A7" s="11" t="s">
         <v>696</v>
       </c>
@@ -15947,13 +16175,13 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="8" max="8" width="24.6640625" customWidth="1"/>
+    <col min="8" max="8" width="24.7109375" customWidth="1"/>
     <col min="9" max="9" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="8:9" ht="13">
+    <row r="1" spans="8:9">
       <c r="H1" s="10" t="s">
         <v>626</v>
       </c>
@@ -15961,7 +16189,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="2" spans="8:9" ht="13">
+    <row r="2" spans="8:9">
       <c r="H2" s="9" t="s">
         <v>625</v>
       </c>
@@ -15969,7 +16197,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="3" spans="8:9" ht="13">
+    <row r="3" spans="8:9">
       <c r="H3" s="9" t="s">
         <v>650</v>
       </c>
@@ -15977,7 +16205,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="4" spans="8:9" ht="13">
+    <row r="4" spans="8:9">
       <c r="H4" s="9" t="s">
         <v>640</v>
       </c>
@@ -15985,7 +16213,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="5" spans="8:9" ht="13">
+    <row r="5" spans="8:9">
       <c r="H5" s="9" t="s">
         <v>651</v>
       </c>
@@ -15993,7 +16221,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="6" spans="8:9" ht="13">
+    <row r="6" spans="8:9">
       <c r="H6" s="9" t="s">
         <v>622</v>
       </c>
@@ -16001,7 +16229,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="7" spans="8:9" ht="13">
+    <row r="7" spans="8:9">
       <c r="H7" s="9" t="s">
         <v>621</v>
       </c>
@@ -16009,7 +16237,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="8" spans="8:9" ht="13">
+    <row r="8" spans="8:9">
       <c r="H8" s="9" t="s">
         <v>652</v>
       </c>
@@ -16017,7 +16245,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="9" spans="8:9" ht="13">
+    <row r="9" spans="8:9">
       <c r="H9" s="9" t="s">
         <v>635</v>
       </c>
@@ -16025,7 +16253,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="10" spans="8:9" ht="13">
+    <row r="10" spans="8:9">
       <c r="H10" s="9" t="s">
         <v>631</v>
       </c>
@@ -16033,7 +16261,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="11" spans="8:9" ht="13">
+    <row r="11" spans="8:9">
       <c r="H11" s="9" t="s">
         <v>614</v>
       </c>
@@ -16041,7 +16269,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="12" spans="8:9" ht="13">
+    <row r="12" spans="8:9">
       <c r="H12" s="9" t="s">
         <v>643</v>
       </c>
@@ -16049,7 +16277,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="13" spans="8:9" ht="13">
+    <row r="13" spans="8:9">
       <c r="H13" s="9" t="s">
         <v>653</v>
       </c>
@@ -16057,7 +16285,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="14" spans="8:9" ht="13">
+    <row r="14" spans="8:9">
       <c r="H14" s="9" t="s">
         <v>610</v>
       </c>
@@ -16065,7 +16293,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="15" spans="8:9" ht="13">
+    <row r="15" spans="8:9">
       <c r="H15" s="9" t="s">
         <v>654</v>
       </c>
@@ -16073,7 +16301,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="16" spans="8:9" ht="13">
+    <row r="16" spans="8:9">
       <c r="H16" s="9" t="s">
         <v>648</v>
       </c>
@@ -16081,7 +16309,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="17" spans="8:9" ht="13">
+    <row r="17" spans="8:9">
       <c r="H17" s="9" t="s">
         <v>655</v>
       </c>
@@ -16089,7 +16317,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="18" spans="8:9" ht="13">
+    <row r="18" spans="8:9">
       <c r="H18" s="9" t="s">
         <v>656</v>
       </c>
@@ -16097,7 +16325,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="19" spans="8:9" ht="13">
+    <row r="19" spans="8:9">
       <c r="H19" s="9" t="s">
         <v>613</v>
       </c>
@@ -16105,7 +16333,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="20" spans="8:9" ht="13">
+    <row r="20" spans="8:9">
       <c r="H20" s="9" t="s">
         <v>657</v>
       </c>
@@ -16113,7 +16341,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="21" spans="8:9" ht="13">
+    <row r="21" spans="8:9">
       <c r="H21" s="9" t="s">
         <v>619</v>
       </c>
@@ -16121,7 +16349,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="22" spans="8:9" ht="13">
+    <row r="22" spans="8:9">
       <c r="H22" s="9" t="s">
         <v>658</v>
       </c>
@@ -16129,7 +16357,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="23" spans="8:9" ht="13">
+    <row r="23" spans="8:9">
       <c r="H23" s="9" t="s">
         <v>659</v>
       </c>
@@ -16137,7 +16365,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="24" spans="8:9" ht="13">
+    <row r="24" spans="8:9">
       <c r="H24" s="9" t="s">
         <v>639</v>
       </c>
@@ -16145,7 +16373,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="25" spans="8:9" ht="13">
+    <row r="25" spans="8:9">
       <c r="H25" s="9" t="s">
         <v>660</v>
       </c>
@@ -16153,7 +16381,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="26" spans="8:9" ht="13">
+    <row r="26" spans="8:9">
       <c r="H26" s="9" t="s">
         <v>661</v>
       </c>
@@ -16161,7 +16389,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="27" spans="8:9" ht="13">
+    <row r="27" spans="8:9">
       <c r="H27" s="9" t="s">
         <v>662</v>
       </c>
@@ -16169,7 +16397,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="28" spans="8:9" ht="13">
+    <row r="28" spans="8:9">
       <c r="H28" s="9" t="s">
         <v>663</v>
       </c>
@@ -16177,7 +16405,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="29" spans="8:9" ht="13">
+    <row r="29" spans="8:9">
       <c r="H29" s="9" t="s">
         <v>664</v>
       </c>
@@ -16185,7 +16413,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="30" spans="8:9" ht="13">
+    <row r="30" spans="8:9">
       <c r="H30" s="9" t="s">
         <v>665</v>
       </c>
@@ -16193,7 +16421,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="31" spans="8:9" ht="13">
+    <row r="31" spans="8:9">
       <c r="H31" s="9" t="s">
         <v>628</v>
       </c>
@@ -16201,7 +16429,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="32" spans="8:9" ht="13">
+    <row r="32" spans="8:9">
       <c r="H32" s="9" t="s">
         <v>666</v>
       </c>
@@ -16209,7 +16437,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="33" spans="8:9" ht="13">
+    <row r="33" spans="8:9">
       <c r="H33" s="9" t="s">
         <v>667</v>
       </c>
@@ -16217,7 +16445,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="34" spans="8:9" ht="13">
+    <row r="34" spans="8:9">
       <c r="H34" s="9" t="s">
         <v>615</v>
       </c>
@@ -16225,7 +16453,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="35" spans="8:9" ht="13">
+    <row r="35" spans="8:9">
       <c r="H35" s="9" t="s">
         <v>668</v>
       </c>
@@ -16233,7 +16461,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="36" spans="8:9" ht="13">
+    <row r="36" spans="8:9">
       <c r="H36" s="9" t="s">
         <v>636</v>
       </c>
@@ -16241,7 +16469,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="37" spans="8:9" ht="13">
+    <row r="37" spans="8:9">
       <c r="H37" s="9" t="s">
         <v>669</v>
       </c>
@@ -16249,7 +16477,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="38" spans="8:9" ht="13">
+    <row r="38" spans="8:9">
       <c r="H38" s="9" t="s">
         <v>670</v>
       </c>
@@ -16257,7 +16485,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="39" spans="8:9" ht="13">
+    <row r="39" spans="8:9">
       <c r="H39" s="9" t="s">
         <v>612</v>
       </c>
@@ -16265,7 +16493,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="40" spans="8:9" ht="13">
+    <row r="40" spans="8:9">
       <c r="H40" s="9" t="s">
         <v>642</v>
       </c>
@@ -16273,7 +16501,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="41" spans="8:9" ht="13">
+    <row r="41" spans="8:9">
       <c r="H41" s="9" t="s">
         <v>629</v>
       </c>
@@ -16281,7 +16509,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="42" spans="8:9" ht="13">
+    <row r="42" spans="8:9">
       <c r="H42" s="9" t="s">
         <v>671</v>
       </c>
@@ -16289,7 +16517,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="43" spans="8:9" ht="13">
+    <row r="43" spans="8:9">
       <c r="H43" s="9" t="s">
         <v>672</v>
       </c>
@@ -16297,7 +16525,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="44" spans="8:9" ht="13">
+    <row r="44" spans="8:9">
       <c r="H44" s="9" t="s">
         <v>673</v>
       </c>
@@ -16305,7 +16533,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="45" spans="8:9" ht="13">
+    <row r="45" spans="8:9">
       <c r="H45" s="9" t="s">
         <v>674</v>
       </c>
@@ -16313,7 +16541,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="46" spans="8:9" ht="13">
+    <row r="46" spans="8:9">
       <c r="H46" s="9" t="s">
         <v>623</v>
       </c>
@@ -16321,7 +16549,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="47" spans="8:9" ht="13">
+    <row r="47" spans="8:9">
       <c r="H47" s="9" t="s">
         <v>675</v>
       </c>
@@ -16329,7 +16557,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="48" spans="8:9" ht="13">
+    <row r="48" spans="8:9">
       <c r="H48" s="9" t="s">
         <v>676</v>
       </c>
@@ -16337,7 +16565,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="49" spans="8:9" ht="13">
+    <row r="49" spans="8:9">
       <c r="H49" s="9" t="s">
         <v>677</v>
       </c>
@@ -16345,7 +16573,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="50" spans="8:9" ht="13">
+    <row r="50" spans="8:9">
       <c r="H50" s="9" t="s">
         <v>630</v>
       </c>
@@ -16353,7 +16581,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="51" spans="8:9" ht="13">
+    <row r="51" spans="8:9">
       <c r="H51" s="9" t="s">
         <v>678</v>
       </c>
@@ -16361,7 +16589,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="52" spans="8:9" ht="13">
+    <row r="52" spans="8:9">
       <c r="H52" s="9" t="s">
         <v>617</v>
       </c>
@@ -16369,7 +16597,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="53" spans="8:9" ht="13">
+    <row r="53" spans="8:9">
       <c r="H53" s="10" t="s">
         <v>641</v>
       </c>
@@ -16377,7 +16605,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="54" spans="8:9" ht="13">
+    <row r="54" spans="8:9">
       <c r="H54" s="10" t="s">
         <v>627</v>
       </c>
@@ -16385,7 +16613,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="55" spans="8:9" ht="13">
+    <row r="55" spans="8:9">
       <c r="H55" s="9" t="s">
         <v>679</v>
       </c>
@@ -16393,7 +16621,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="56" spans="8:9" ht="13">
+    <row r="56" spans="8:9">
       <c r="H56" s="9" t="s">
         <v>644</v>
       </c>
@@ -16401,7 +16629,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="57" spans="8:9" ht="13">
+    <row r="57" spans="8:9">
       <c r="H57" s="9" t="s">
         <v>620</v>
       </c>
@@ -16409,7 +16637,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="58" spans="8:9" ht="13">
+    <row r="58" spans="8:9">
       <c r="H58" s="9" t="s">
         <v>645</v>
       </c>
@@ -16417,7 +16645,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="59" spans="8:9" ht="13">
+    <row r="59" spans="8:9">
       <c r="H59" s="10" t="s">
         <v>624</v>
       </c>
@@ -16425,7 +16653,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="60" spans="8:9" ht="13">
+    <row r="60" spans="8:9">
       <c r="H60" s="10" t="s">
         <v>680</v>
       </c>
@@ -16433,7 +16661,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="61" spans="8:9" ht="13">
+    <row r="61" spans="8:9">
       <c r="H61" s="10" t="s">
         <v>632</v>
       </c>
@@ -16441,7 +16669,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="62" spans="8:9" ht="13">
+    <row r="62" spans="8:9">
       <c r="H62" s="10" t="s">
         <v>611</v>
       </c>
@@ -16449,7 +16677,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="63" spans="8:9" ht="13">
+    <row r="63" spans="8:9">
       <c r="H63" s="10" t="s">
         <v>646</v>
       </c>
@@ -16457,7 +16685,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="64" spans="8:9" ht="13">
+    <row r="64" spans="8:9">
       <c r="H64" s="10" t="s">
         <v>681</v>
       </c>
@@ -16465,7 +16693,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="65" spans="8:9" ht="13">
+    <row r="65" spans="8:9">
       <c r="H65" s="10" t="s">
         <v>682</v>
       </c>
@@ -16473,7 +16701,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="66" spans="8:9" ht="13">
+    <row r="66" spans="8:9">
       <c r="H66" s="10" t="s">
         <v>609</v>
       </c>
@@ -16481,7 +16709,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="67" spans="8:9" ht="13">
+    <row r="67" spans="8:9">
       <c r="H67" s="10" t="s">
         <v>634</v>
       </c>
@@ -16489,7 +16717,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="68" spans="8:9" ht="13">
+    <row r="68" spans="8:9">
       <c r="H68" s="10" t="s">
         <v>683</v>
       </c>
@@ -16497,7 +16725,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="69" spans="8:9" ht="13">
+    <row r="69" spans="8:9">
       <c r="H69" s="10" t="s">
         <v>608</v>
       </c>
@@ -16505,7 +16733,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="70" spans="8:9" ht="13">
+    <row r="70" spans="8:9">
       <c r="H70" s="10" t="s">
         <v>633</v>
       </c>
@@ -16513,7 +16741,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="71" spans="8:9" ht="13">
+    <row r="71" spans="8:9">
       <c r="H71" s="10" t="s">
         <v>684</v>
       </c>
@@ -16521,7 +16749,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="72" spans="8:9" ht="13">
+    <row r="72" spans="8:9">
       <c r="H72" s="10" t="s">
         <v>637</v>
       </c>
@@ -16529,7 +16757,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="73" spans="8:9" ht="13">
+    <row r="73" spans="8:9">
       <c r="H73" s="10" t="s">
         <v>692</v>
       </c>
@@ -16537,7 +16765,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="74" spans="8:9" ht="13">
+    <row r="74" spans="8:9">
       <c r="H74" s="10" t="s">
         <v>607</v>
       </c>
@@ -16545,7 +16773,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="75" spans="8:9" ht="13">
+    <row r="75" spans="8:9">
       <c r="H75" s="10" t="s">
         <v>638</v>
       </c>
@@ -16553,7 +16781,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="76" spans="8:9" ht="13">
+    <row r="76" spans="8:9">
       <c r="H76" s="10" t="s">
         <v>647</v>
       </c>
@@ -16561,7 +16789,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="77" spans="8:9" ht="13">
+    <row r="77" spans="8:9">
       <c r="H77" s="10" t="s">
         <v>618</v>
       </c>
@@ -16569,7 +16797,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="78" spans="8:9" ht="13">
+    <row r="78" spans="8:9">
       <c r="H78" s="10" t="s">
         <v>616</v>
       </c>
@@ -16577,7 +16805,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="79" spans="8:9" ht="13">
+    <row r="79" spans="8:9">
       <c r="H79" s="10" t="s">
         <v>685</v>
       </c>
@@ -16585,7 +16813,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="80" spans="8:9" ht="13">
+    <row r="80" spans="8:9">
       <c r="H80" s="10" t="s">
         <v>686</v>
       </c>
@@ -16593,7 +16821,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="81" spans="8:9" ht="13">
+    <row r="81" spans="8:9">
       <c r="H81" s="10" t="s">
         <v>687</v>
       </c>
@@ -16601,7 +16829,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="82" spans="8:9" ht="13">
+    <row r="82" spans="8:9">
       <c r="H82" s="10" t="s">
         <v>693</v>
       </c>
@@ -16609,7 +16837,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="83" spans="8:9" ht="13">
+    <row r="83" spans="8:9">
       <c r="H83" s="10" t="s">
         <v>689</v>
       </c>
@@ -16617,7 +16845,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="84" spans="8:9" ht="13">
+    <row r="84" spans="8:9">
       <c r="H84" s="10" t="s">
         <v>694</v>
       </c>
@@ -16626,9 +16854,9 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/训练中心创客交叉融合空间建设/admin/创客教育基地联盟/创客导师培训课程管理/0 创客导师培训研讨班清华大学学员登记表（2015新版）.xlsx
+++ b/训练中心创客交叉融合空间建设/admin/创客教育基地联盟/创客导师培训课程管理/0 创客导师培训研讨班清华大学学员登记表（2015新版）.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Woody\Git Projects\workzone\训练中心创客交叉融合空间建设\admin\创客教育基地联盟\创客导师培训课程管理\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3645" yWindow="0" windowWidth="19200" windowHeight="17265" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="联盟成立代表" sheetId="6" r:id="rId1"/>
@@ -35,41 +30,41 @@
     <definedName name="sexList">excelhidesheetname!$A$3:$B$3</definedName>
     <definedName name="sfhqList">excelhidesheetname!$A$6:$B$6</definedName>
     <definedName name="titleList">excelhidesheetname!$A$9:$E$9</definedName>
+    <definedName name="上海市">Sheet3!$Y$2:$Y$18</definedName>
+    <definedName name="云南省">Sheet3!$AF$2:$AF$17</definedName>
+    <definedName name="其他">Sheet3!$AI$2</definedName>
+    <definedName name="内蒙古自治区">Sheet3!$S$2:$S$13</definedName>
+    <definedName name="北京市">Sheet3!$C$2:$C$19</definedName>
+    <definedName name="台湾省">Sheet3!$AA$2:$AA$22</definedName>
+    <definedName name="吉林省">Sheet3!$O$2:$O$10</definedName>
+    <definedName name="四川省">Sheet3!$Z$2:$Z$22</definedName>
+    <definedName name="天津市">Sheet3!$AB$2:$AB$19</definedName>
+    <definedName name="宁夏回族自治区">Sheet3!$T$2:$T$6</definedName>
     <definedName name="安徽省">Sheet3!$A$2:$A$18</definedName>
-    <definedName name="澳门特别行政区">Sheet3!$B$2:$B$9</definedName>
-    <definedName name="北京市">Sheet3!$C$2:$C$19</definedName>
-    <definedName name="福建省">Sheet3!$D$2:$D$10</definedName>
-    <definedName name="甘肃省">Sheet3!$E$2:$E$15</definedName>
+    <definedName name="山东省">Sheet3!$V$2:$V$18</definedName>
+    <definedName name="山西省">Sheet3!$W$2:$W$12</definedName>
     <definedName name="广东省">Sheet3!$F$2:$F$22</definedName>
     <definedName name="广西壮族自治区">Sheet3!$G$2:$G$15</definedName>
-    <definedName name="贵州省">Sheet3!$H$2:$H$10</definedName>
-    <definedName name="海南省">Sheet3!$I$2:$I$20</definedName>
+    <definedName name="新疆维吾尔自治区">Sheet3!$AE$2:$AE$19</definedName>
+    <definedName name="江苏省">Sheet3!$P$2:$P$14</definedName>
+    <definedName name="江西省">Sheet3!$Q$2:$Q$12</definedName>
     <definedName name="河北省">Sheet3!$J$2:$J$12</definedName>
     <definedName name="河南省">Sheet3!$K$2:$K$19</definedName>
-    <definedName name="黑龙江省">Sheet3!$L$2:$L$14</definedName>
+    <definedName name="浙江省">Sheet3!$AG$2:$AG$12</definedName>
+    <definedName name="海南省">Sheet3!$I$2:$I$20</definedName>
     <definedName name="湖北省">Sheet3!$M$2:$M$18</definedName>
     <definedName name="湖南省">Sheet3!$N$2:$N$15</definedName>
-    <definedName name="吉林省">Sheet3!$O$2:$O$10</definedName>
-    <definedName name="江苏省">Sheet3!$P$2:$P$14</definedName>
-    <definedName name="江西省">Sheet3!$Q$2:$Q$12</definedName>
+    <definedName name="澳门特别行政区">Sheet3!$B$2:$B$9</definedName>
+    <definedName name="甘肃省">Sheet3!$E$2:$E$15</definedName>
+    <definedName name="福建省">Sheet3!$D$2:$D$10</definedName>
+    <definedName name="西藏自治区">Sheet3!$AC$2:$AC$8</definedName>
+    <definedName name="贵州省">Sheet3!$H$2:$H$10</definedName>
     <definedName name="辽宁省">Sheet3!$R$2:$R$15</definedName>
-    <definedName name="内蒙古自治区">Sheet3!$S$2:$S$13</definedName>
-    <definedName name="宁夏回族自治区">Sheet3!$T$2:$T$6</definedName>
-    <definedName name="其他">Sheet3!$AI$2</definedName>
+    <definedName name="重庆市">Sheet3!$AH$2:$AH$20</definedName>
+    <definedName name="陕西省">Sheet3!$X$2:$X$1122</definedName>
     <definedName name="青海省">Sheet3!$U$2:$U$9</definedName>
-    <definedName name="山东省">Sheet3!$V$2:$V$18</definedName>
-    <definedName name="山西省">Sheet3!$W$2:$W$12</definedName>
-    <definedName name="陕西省">Sheet3!$X$2:$X$1122</definedName>
-    <definedName name="上海市">Sheet3!$Y$2:$Y$18</definedName>
-    <definedName name="四川省">Sheet3!$Z$2:$Z$22</definedName>
-    <definedName name="台湾省">Sheet3!$AA$2:$AA$22</definedName>
-    <definedName name="天津市">Sheet3!$AB$2:$AB$19</definedName>
-    <definedName name="西藏自治区">Sheet3!$AC$2:$AC$8</definedName>
     <definedName name="香港特别行政区">Sheet3!$AD$2:$AD$19</definedName>
-    <definedName name="新疆维吾尔自治区">Sheet3!$AE$2:$AE$19</definedName>
-    <definedName name="云南省">Sheet3!$AF$2:$AF$17</definedName>
-    <definedName name="浙江省">Sheet3!$AG$2:$AG$12</definedName>
-    <definedName name="重庆市">Sheet3!$AH$2:$AH$20</definedName>
+    <definedName name="黑龙江省">Sheet3!$L$2:$L$14</definedName>
   </definedNames>
   <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
@@ -81,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2103" uniqueCount="1383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2109" uniqueCount="1387">
   <si>
     <t>学员姓名*(10字以内)</t>
   </si>
@@ -2248,7 +2243,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>工程技术研究中心</t>
@@ -3343,7 +3337,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>姓</t>
@@ -3352,7 +3345,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>名</t>
@@ -3658,7 +3650,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>主任</t>
@@ -3675,7 +3666,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>教授</t>
@@ -4517,7 +4507,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>南通大学</t>
@@ -4526,7 +4515,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>工程训练中心</t>
@@ -4833,7 +4821,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>主任</t>
@@ -4850,7 +4837,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>教授</t>
@@ -4885,12 +4871,24 @@
   <si>
     <t>132302197609250336</t>
   </si>
+  <si>
+    <t>黄刚</t>
+  </si>
+  <si>
+    <t>42011119781030583X</t>
+  </si>
+  <si>
+    <t>副院长</t>
+  </si>
+  <si>
+    <t>华中科技大学启明学院</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="30">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -5228,7 +5226,7 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
     <cellStyle name="常规 4" xfId="2"/>
   </cellStyles>
@@ -5321,7 +5319,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="F0FFC8"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -5641,19 +5639,19 @@
       <selection activeCell="H54" sqref="H54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="3" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.85546875" style="44" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.83203125" style="44" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" ht="13">
       <c r="A1" t="s">
         <v>947</v>
       </c>
@@ -5839,7 +5837,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" ht="13">
       <c r="A7" t="s">
         <v>978</v>
       </c>
@@ -6300,7 +6298,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" ht="13">
       <c r="A23" t="s">
         <v>1160</v>
       </c>
@@ -7030,7 +7028,7 @@
         <v>1337</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" ht="15">
       <c r="A50" t="s">
         <v>1338</v>
       </c>
@@ -7114,7 +7112,7 @@
         <v>1359</v>
       </c>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:10" ht="13">
       <c r="A53" t="s">
         <v>1370</v>
       </c>
@@ -7186,24 +7184,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H83"/>
+  <dimension ref="A1:H84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="H83" sqref="H83"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="H85" sqref="H85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="6.42578125" customWidth="1"/>
-    <col min="2" max="3" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.85546875" style="44" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="36.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.5" customWidth="1"/>
+    <col min="2" max="3" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.83203125" style="44" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="36.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" ht="13">
       <c r="A1" t="s">
         <v>914</v>
       </c>
@@ -7650,7 +7648,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" ht="13">
       <c r="A19" s="45" t="s">
         <v>1108</v>
       </c>
@@ -8804,7 +8802,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" ht="13">
       <c r="A65" t="s">
         <v>1276</v>
       </c>
@@ -8830,7 +8828,7 @@
         <v>1283</v>
       </c>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" ht="13">
       <c r="A66" t="s">
         <v>1279</v>
       </c>
@@ -9032,7 +9030,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:8" ht="13">
       <c r="A74" t="s">
         <v>1338</v>
       </c>
@@ -9240,7 +9238,7 @@
         <v>1359</v>
       </c>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:8" ht="13">
       <c r="A82" t="s">
         <v>1370</v>
       </c>
@@ -9290,6 +9288,29 @@
       </c>
       <c r="H83" t="s">
         <v>1380</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="13">
+      <c r="A84" t="s">
+        <v>1383</v>
+      </c>
+      <c r="B84" t="s">
+        <v>527</v>
+      </c>
+      <c r="C84" t="s">
+        <v>920</v>
+      </c>
+      <c r="E84" t="s">
+        <v>1385</v>
+      </c>
+      <c r="F84">
+        <v>13995613322</v>
+      </c>
+      <c r="G84" t="s">
+        <v>1384</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>1386</v>
       </c>
     </row>
   </sheetData>
@@ -9306,7 +9327,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:V151"/>
@@ -9315,25 +9336,25 @@
       <selection sqref="A1:V1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="23.42578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="23.42578125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="26.42578125" style="8" customWidth="1"/>
-    <col min="6" max="9" width="13.7109375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="17.42578125" style="2" customWidth="1"/>
-    <col min="11" max="14" width="13.7109375" style="2" customWidth="1"/>
-    <col min="15" max="15" width="26.42578125" style="2" customWidth="1"/>
-    <col min="16" max="16" width="22.42578125" style="2" customWidth="1"/>
-    <col min="17" max="17" width="17.7109375" style="2" customWidth="1"/>
-    <col min="18" max="18" width="29.85546875" style="2" customWidth="1"/>
-    <col min="19" max="19" width="26.85546875" style="2" customWidth="1"/>
-    <col min="20" max="20" width="26.42578125" style="16" customWidth="1"/>
-    <col min="21" max="21" width="13.7109375" style="8" customWidth="1"/>
-    <col min="22" max="22" width="26.42578125" style="2" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="23.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="22.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="23.5" style="2" customWidth="1"/>
+    <col min="5" max="5" width="26.5" style="8" customWidth="1"/>
+    <col min="6" max="9" width="13.6640625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="17.5" style="2" customWidth="1"/>
+    <col min="11" max="14" width="13.6640625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="26.5" style="2" customWidth="1"/>
+    <col min="16" max="16" width="22.5" style="2" customWidth="1"/>
+    <col min="17" max="17" width="17.6640625" style="2" customWidth="1"/>
+    <col min="18" max="18" width="29.83203125" style="2" customWidth="1"/>
+    <col min="19" max="19" width="26.83203125" style="2" customWidth="1"/>
+    <col min="20" max="20" width="26.5" style="16" customWidth="1"/>
+    <col min="21" max="21" width="13.6640625" style="8" customWidth="1"/>
+    <col min="22" max="22" width="26.5" style="2" customWidth="1"/>
+    <col min="23" max="16384" width="9.1640625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="6" customFormat="1" ht="15" customHeight="1">
@@ -12959,13 +12980,13 @@
       <selection activeCell="AL13" sqref="AL13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="7" max="7" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37">
+    <row r="1" spans="1:37" ht="13">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -13078,7 +13099,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="2" spans="1:37">
+    <row r="2" spans="1:37" ht="13">
       <c r="A2" t="s">
         <v>50</v>
       </c>
@@ -13188,7 +13209,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="3" spans="1:37">
+    <row r="3" spans="1:37" ht="13">
       <c r="A3" t="s">
         <v>84</v>
       </c>
@@ -13298,7 +13319,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="4" spans="1:37">
+    <row r="4" spans="1:37" ht="13">
       <c r="A4" t="s">
         <v>118</v>
       </c>
@@ -13408,7 +13429,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="5" spans="1:37">
+    <row r="5" spans="1:37" ht="13">
       <c r="A5" t="s">
         <v>152</v>
       </c>
@@ -13518,7 +13539,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="6" spans="1:37">
+    <row r="6" spans="1:37" ht="13">
       <c r="A6" t="s">
         <v>186</v>
       </c>
@@ -13628,7 +13649,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="7" spans="1:37">
+    <row r="7" spans="1:37" ht="13">
       <c r="A7" t="s">
         <v>220</v>
       </c>
@@ -13735,7 +13756,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="8" spans="1:37">
+    <row r="8" spans="1:37" ht="13">
       <c r="A8" t="s">
         <v>253</v>
       </c>
@@ -13840,7 +13861,7 @@
       </c>
       <c r="AK8" s="12"/>
     </row>
-    <row r="9" spans="1:37">
+    <row r="9" spans="1:37" ht="13">
       <c r="A9" t="s">
         <v>286</v>
       </c>
@@ -13942,7 +13963,7 @@
       </c>
       <c r="AK9" s="12"/>
     </row>
-    <row r="10" spans="1:37">
+    <row r="10" spans="1:37" ht="13">
       <c r="A10" t="s">
         <v>318</v>
       </c>
@@ -14038,7 +14059,7 @@
       </c>
       <c r="AK10" s="12"/>
     </row>
-    <row r="11" spans="1:37">
+    <row r="11" spans="1:37" ht="13">
       <c r="A11" t="s">
         <v>348</v>
       </c>
@@ -14125,7 +14146,7 @@
       </c>
       <c r="AK11" s="12"/>
     </row>
-    <row r="12" spans="1:37">
+    <row r="12" spans="1:37" ht="13">
       <c r="A12" t="s">
         <v>375</v>
       </c>
@@ -14209,7 +14230,7 @@
       </c>
       <c r="AK12" s="12"/>
     </row>
-    <row r="13" spans="1:37">
+    <row r="13" spans="1:37" ht="13">
       <c r="A13" t="s">
         <v>401</v>
       </c>
@@ -14281,7 +14302,7 @@
       </c>
       <c r="AK13" s="12"/>
     </row>
-    <row r="14" spans="1:37">
+    <row r="14" spans="1:37" ht="13">
       <c r="A14" t="s">
         <v>423</v>
       </c>
@@ -14349,7 +14370,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="15" spans="1:37">
+    <row r="15" spans="1:37" ht="13">
       <c r="A15" t="s">
         <v>443</v>
       </c>
@@ -14411,7 +14432,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="16" spans="1:37">
+    <row r="16" spans="1:37" ht="13">
       <c r="A16" t="s">
         <v>462</v>
       </c>
@@ -14461,7 +14482,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="17" spans="1:36">
+    <row r="17" spans="1:36" ht="13">
       <c r="A17" t="s">
         <v>477</v>
       </c>
@@ -14511,7 +14532,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="18" spans="1:36">
+    <row r="18" spans="1:36" ht="13">
       <c r="A18" t="s">
         <v>492</v>
       </c>
@@ -14558,7 +14579,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="19" spans="1:36">
+    <row r="19" spans="1:36" ht="13">
       <c r="C19" t="s">
         <v>506</v>
       </c>
@@ -14594,7 +14615,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="20" spans="1:36">
+    <row r="20" spans="1:36" ht="13">
       <c r="F20" t="s">
         <v>516</v>
       </c>
@@ -14614,7 +14635,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="21" spans="1:36">
+    <row r="21" spans="1:36" ht="13">
       <c r="F21" t="s">
         <v>521</v>
       </c>
@@ -14628,7 +14649,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="22" spans="1:36">
+    <row r="22" spans="1:36" ht="13">
       <c r="F22" t="s">
         <v>524</v>
       </c>
@@ -14642,877 +14663,877 @@
         <v>873</v>
       </c>
     </row>
-    <row r="23" spans="1:36">
+    <row r="23" spans="1:36" ht="13">
       <c r="AJ23" s="12" t="s">
         <v>872</v>
       </c>
     </row>
-    <row r="24" spans="1:36">
+    <row r="24" spans="1:36" ht="13">
       <c r="AJ24" s="12" t="s">
         <v>871</v>
       </c>
     </row>
-    <row r="25" spans="1:36">
+    <row r="25" spans="1:36" ht="13">
       <c r="AJ25" s="12" t="s">
         <v>870</v>
       </c>
     </row>
-    <row r="26" spans="1:36">
+    <row r="26" spans="1:36" ht="13">
       <c r="AJ26" s="12" t="s">
         <v>869</v>
       </c>
     </row>
-    <row r="27" spans="1:36">
+    <row r="27" spans="1:36" ht="13">
       <c r="AJ27" s="12" t="s">
         <v>868</v>
       </c>
     </row>
-    <row r="28" spans="1:36">
+    <row r="28" spans="1:36" ht="13">
       <c r="AJ28" s="12" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="29" spans="1:36">
+    <row r="29" spans="1:36" ht="13">
       <c r="AJ29" s="12" t="s">
         <v>866</v>
       </c>
     </row>
-    <row r="30" spans="1:36">
+    <row r="30" spans="1:36" ht="13">
       <c r="AJ30" s="12" t="s">
         <v>865</v>
       </c>
     </row>
-    <row r="31" spans="1:36">
+    <row r="31" spans="1:36" ht="13">
       <c r="AJ31" s="12" t="s">
         <v>864</v>
       </c>
     </row>
-    <row r="32" spans="1:36">
+    <row r="32" spans="1:36" ht="13">
       <c r="AJ32" s="12" t="s">
         <v>863</v>
       </c>
     </row>
-    <row r="33" spans="36:36">
+    <row r="33" spans="36:36" ht="13">
       <c r="AJ33" s="12" t="s">
         <v>862</v>
       </c>
     </row>
-    <row r="34" spans="36:36">
+    <row r="34" spans="36:36" ht="13">
       <c r="AJ34" s="12" t="s">
         <v>861</v>
       </c>
     </row>
-    <row r="35" spans="36:36">
+    <row r="35" spans="36:36" ht="13">
       <c r="AJ35" s="12" t="s">
         <v>860</v>
       </c>
     </row>
-    <row r="36" spans="36:36">
+    <row r="36" spans="36:36" ht="13">
       <c r="AJ36" s="12" t="s">
         <v>859</v>
       </c>
     </row>
-    <row r="37" spans="36:36">
+    <row r="37" spans="36:36" ht="13">
       <c r="AJ37" s="12" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="38" spans="36:36">
+    <row r="38" spans="36:36" ht="13">
       <c r="AJ38" s="12" t="s">
         <v>857</v>
       </c>
     </row>
-    <row r="39" spans="36:36">
+    <row r="39" spans="36:36" ht="13">
       <c r="AJ39" s="12" t="s">
         <v>856</v>
       </c>
     </row>
-    <row r="40" spans="36:36">
+    <row r="40" spans="36:36" ht="13">
       <c r="AJ40" s="12" t="s">
         <v>855</v>
       </c>
     </row>
-    <row r="41" spans="36:36">
+    <row r="41" spans="36:36" ht="13">
       <c r="AJ41" s="12" t="s">
         <v>854</v>
       </c>
     </row>
-    <row r="42" spans="36:36">
+    <row r="42" spans="36:36" ht="13">
       <c r="AJ42" s="12" t="s">
         <v>853</v>
       </c>
     </row>
-    <row r="43" spans="36:36">
+    <row r="43" spans="36:36" ht="13">
       <c r="AJ43" s="12" t="s">
         <v>852</v>
       </c>
     </row>
-    <row r="44" spans="36:36">
+    <row r="44" spans="36:36" ht="13">
       <c r="AJ44" s="12" t="s">
         <v>851</v>
       </c>
     </row>
-    <row r="45" spans="36:36">
+    <row r="45" spans="36:36" ht="13">
       <c r="AJ45" s="12" t="s">
         <v>850</v>
       </c>
     </row>
-    <row r="46" spans="36:36">
+    <row r="46" spans="36:36" ht="13">
       <c r="AJ46" s="12" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="47" spans="36:36">
+    <row r="47" spans="36:36" ht="13">
       <c r="AJ47" s="12" t="s">
         <v>848</v>
       </c>
     </row>
-    <row r="48" spans="36:36">
+    <row r="48" spans="36:36" ht="13">
       <c r="AJ48" s="12" t="s">
         <v>847</v>
       </c>
     </row>
-    <row r="49" spans="36:36">
+    <row r="49" spans="36:36" ht="13">
       <c r="AJ49" s="12" t="s">
         <v>846</v>
       </c>
     </row>
-    <row r="50" spans="36:36">
+    <row r="50" spans="36:36" ht="13">
       <c r="AJ50" s="12" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="51" spans="36:36">
+    <row r="51" spans="36:36" ht="13">
       <c r="AJ51" s="12" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="52" spans="36:36">
+    <row r="52" spans="36:36" ht="13">
       <c r="AJ52" s="12" t="s">
         <v>843</v>
       </c>
     </row>
-    <row r="53" spans="36:36">
+    <row r="53" spans="36:36" ht="13">
       <c r="AJ53" s="12" t="s">
         <v>842</v>
       </c>
     </row>
-    <row r="54" spans="36:36">
+    <row r="54" spans="36:36" ht="13">
       <c r="AJ54" s="12" t="s">
         <v>841</v>
       </c>
     </row>
-    <row r="55" spans="36:36">
+    <row r="55" spans="36:36" ht="13">
       <c r="AJ55" s="12" t="s">
         <v>840</v>
       </c>
     </row>
-    <row r="56" spans="36:36">
+    <row r="56" spans="36:36" ht="13">
       <c r="AJ56" s="12" t="s">
         <v>839</v>
       </c>
     </row>
-    <row r="57" spans="36:36">
+    <row r="57" spans="36:36" ht="13">
       <c r="AJ57" s="12" t="s">
         <v>838</v>
       </c>
     </row>
-    <row r="58" spans="36:36">
+    <row r="58" spans="36:36" ht="13">
       <c r="AJ58" s="12" t="s">
         <v>837</v>
       </c>
     </row>
-    <row r="59" spans="36:36">
+    <row r="59" spans="36:36" ht="13">
       <c r="AJ59" s="12" t="s">
         <v>836</v>
       </c>
     </row>
-    <row r="60" spans="36:36">
+    <row r="60" spans="36:36" ht="13">
       <c r="AJ60" s="12" t="s">
         <v>835</v>
       </c>
     </row>
-    <row r="61" spans="36:36">
+    <row r="61" spans="36:36" ht="13">
       <c r="AJ61" s="12" t="s">
         <v>834</v>
       </c>
     </row>
-    <row r="62" spans="36:36">
+    <row r="62" spans="36:36" ht="13">
       <c r="AJ62" s="12" t="s">
         <v>833</v>
       </c>
     </row>
-    <row r="63" spans="36:36">
+    <row r="63" spans="36:36" ht="13">
       <c r="AJ63" s="12" t="s">
         <v>832</v>
       </c>
     </row>
-    <row r="64" spans="36:36">
+    <row r="64" spans="36:36" ht="13">
       <c r="AJ64" s="12" t="s">
         <v>831</v>
       </c>
     </row>
-    <row r="65" spans="36:36">
+    <row r="65" spans="36:36" ht="13">
       <c r="AJ65" s="12" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="66" spans="36:36">
+    <row r="66" spans="36:36" ht="13">
       <c r="AJ66" s="12" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="67" spans="36:36">
+    <row r="67" spans="36:36" ht="13">
       <c r="AJ67" s="12" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="68" spans="36:36">
+    <row r="68" spans="36:36" ht="13">
       <c r="AJ68" s="12" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="69" spans="36:36">
+    <row r="69" spans="36:36" ht="13">
       <c r="AJ69" s="12" t="s">
         <v>826</v>
       </c>
     </row>
-    <row r="70" spans="36:36">
+    <row r="70" spans="36:36" ht="13">
       <c r="AJ70" s="12" t="s">
         <v>825</v>
       </c>
     </row>
-    <row r="71" spans="36:36">
+    <row r="71" spans="36:36" ht="13">
       <c r="AJ71" s="12" t="s">
         <v>824</v>
       </c>
     </row>
-    <row r="72" spans="36:36">
+    <row r="72" spans="36:36" ht="13">
       <c r="AJ72" s="12" t="s">
         <v>823</v>
       </c>
     </row>
-    <row r="73" spans="36:36">
+    <row r="73" spans="36:36" ht="13">
       <c r="AJ73" s="12" t="s">
         <v>822</v>
       </c>
     </row>
-    <row r="74" spans="36:36">
+    <row r="74" spans="36:36" ht="13">
       <c r="AJ74" s="12" t="s">
         <v>821</v>
       </c>
     </row>
-    <row r="75" spans="36:36">
+    <row r="75" spans="36:36" ht="13">
       <c r="AJ75" s="12" t="s">
         <v>820</v>
       </c>
     </row>
-    <row r="76" spans="36:36">
+    <row r="76" spans="36:36" ht="13">
       <c r="AJ76" s="12" t="s">
         <v>819</v>
       </c>
     </row>
-    <row r="77" spans="36:36">
+    <row r="77" spans="36:36" ht="13">
       <c r="AJ77" s="12" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="78" spans="36:36">
+    <row r="78" spans="36:36" ht="13">
       <c r="AJ78" s="12" t="s">
         <v>817</v>
       </c>
     </row>
-    <row r="79" spans="36:36">
+    <row r="79" spans="36:36" ht="13">
       <c r="AJ79" s="12" t="s">
         <v>816</v>
       </c>
     </row>
-    <row r="80" spans="36:36">
+    <row r="80" spans="36:36" ht="13">
       <c r="AJ80" s="12" t="s">
         <v>815</v>
       </c>
     </row>
-    <row r="81" spans="36:36">
+    <row r="81" spans="36:36" ht="13">
       <c r="AJ81" s="12" t="s">
         <v>814</v>
       </c>
     </row>
-    <row r="82" spans="36:36">
+    <row r="82" spans="36:36" ht="13">
       <c r="AJ82" s="12" t="s">
         <v>813</v>
       </c>
     </row>
-    <row r="83" spans="36:36">
+    <row r="83" spans="36:36" ht="13">
       <c r="AJ83" s="12" t="s">
         <v>812</v>
       </c>
     </row>
-    <row r="84" spans="36:36">
+    <row r="84" spans="36:36" ht="13">
       <c r="AJ84" s="12" t="s">
         <v>811</v>
       </c>
     </row>
-    <row r="85" spans="36:36">
+    <row r="85" spans="36:36" ht="13">
       <c r="AJ85" s="12" t="s">
         <v>810</v>
       </c>
     </row>
-    <row r="86" spans="36:36">
+    <row r="86" spans="36:36" ht="13">
       <c r="AJ86" s="12" t="s">
         <v>809</v>
       </c>
     </row>
-    <row r="87" spans="36:36">
+    <row r="87" spans="36:36" ht="13">
       <c r="AJ87" s="12" t="s">
         <v>808</v>
       </c>
     </row>
-    <row r="88" spans="36:36">
+    <row r="88" spans="36:36" ht="13">
       <c r="AJ88" s="12" t="s">
         <v>807</v>
       </c>
     </row>
-    <row r="89" spans="36:36">
+    <row r="89" spans="36:36" ht="13">
       <c r="AJ89" s="12" t="s">
         <v>806</v>
       </c>
     </row>
-    <row r="90" spans="36:36">
+    <row r="90" spans="36:36" ht="13">
       <c r="AJ90" s="12" t="s">
         <v>805</v>
       </c>
     </row>
-    <row r="91" spans="36:36">
+    <row r="91" spans="36:36" ht="13">
       <c r="AJ91" s="12" t="s">
         <v>804</v>
       </c>
     </row>
-    <row r="92" spans="36:36">
+    <row r="92" spans="36:36" ht="13">
       <c r="AJ92" s="12" t="s">
         <v>803</v>
       </c>
     </row>
-    <row r="93" spans="36:36">
+    <row r="93" spans="36:36" ht="13">
       <c r="AJ93" s="12" t="s">
         <v>802</v>
       </c>
     </row>
-    <row r="94" spans="36:36">
+    <row r="94" spans="36:36" ht="13">
       <c r="AJ94" s="12" t="s">
         <v>801</v>
       </c>
     </row>
-    <row r="95" spans="36:36">
+    <row r="95" spans="36:36" ht="13">
       <c r="AJ95" s="12" t="s">
         <v>800</v>
       </c>
     </row>
-    <row r="96" spans="36:36">
+    <row r="96" spans="36:36" ht="13">
       <c r="AJ96" s="12" t="s">
         <v>799</v>
       </c>
     </row>
-    <row r="97" spans="36:36">
+    <row r="97" spans="36:36" ht="13">
       <c r="AJ97" s="12" t="s">
         <v>798</v>
       </c>
     </row>
-    <row r="98" spans="36:36">
+    <row r="98" spans="36:36" ht="13">
       <c r="AJ98" s="12" t="s">
         <v>797</v>
       </c>
     </row>
-    <row r="99" spans="36:36">
+    <row r="99" spans="36:36" ht="13">
       <c r="AJ99" s="12" t="s">
         <v>796</v>
       </c>
     </row>
-    <row r="100" spans="36:36">
+    <row r="100" spans="36:36" ht="13">
       <c r="AJ100" s="12" t="s">
         <v>795</v>
       </c>
     </row>
-    <row r="101" spans="36:36">
+    <row r="101" spans="36:36" ht="13">
       <c r="AJ101" s="12" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="102" spans="36:36">
+    <row r="102" spans="36:36" ht="13">
       <c r="AJ102" s="12" t="s">
         <v>793</v>
       </c>
     </row>
-    <row r="103" spans="36:36">
+    <row r="103" spans="36:36" ht="13">
       <c r="AJ103" s="12" t="s">
         <v>792</v>
       </c>
     </row>
-    <row r="104" spans="36:36">
+    <row r="104" spans="36:36" ht="13">
       <c r="AJ104" s="12" t="s">
         <v>791</v>
       </c>
     </row>
-    <row r="105" spans="36:36">
+    <row r="105" spans="36:36" ht="13">
       <c r="AJ105" s="12" t="s">
         <v>790</v>
       </c>
     </row>
-    <row r="106" spans="36:36">
+    <row r="106" spans="36:36" ht="13">
       <c r="AJ106" s="12" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="107" spans="36:36">
+    <row r="107" spans="36:36" ht="13">
       <c r="AJ107" s="12" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="108" spans="36:36">
+    <row r="108" spans="36:36" ht="13">
       <c r="AJ108" s="12" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="109" spans="36:36">
+    <row r="109" spans="36:36" ht="13">
       <c r="AJ109" s="12" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="110" spans="36:36">
+    <row r="110" spans="36:36" ht="13">
       <c r="AJ110" s="12" t="s">
         <v>785</v>
       </c>
     </row>
-    <row r="111" spans="36:36">
+    <row r="111" spans="36:36" ht="13">
       <c r="AJ111" s="12" t="s">
         <v>784</v>
       </c>
     </row>
-    <row r="112" spans="36:36">
+    <row r="112" spans="36:36" ht="13">
       <c r="AJ112" s="12" t="s">
         <v>783</v>
       </c>
     </row>
-    <row r="113" spans="36:36">
+    <row r="113" spans="36:36" ht="13">
       <c r="AJ113" s="12" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="114" spans="36:36">
+    <row r="114" spans="36:36" ht="13">
       <c r="AJ114" s="12" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="115" spans="36:36">
+    <row r="115" spans="36:36" ht="13">
       <c r="AJ115" s="12" t="s">
         <v>780</v>
       </c>
     </row>
-    <row r="116" spans="36:36">
+    <row r="116" spans="36:36" ht="13">
       <c r="AJ116" s="12" t="s">
         <v>779</v>
       </c>
     </row>
-    <row r="117" spans="36:36">
+    <row r="117" spans="36:36" ht="13">
       <c r="AJ117" s="12" t="s">
         <v>778</v>
       </c>
     </row>
-    <row r="118" spans="36:36">
+    <row r="118" spans="36:36" ht="13">
       <c r="AJ118" s="12" t="s">
         <v>777</v>
       </c>
     </row>
-    <row r="119" spans="36:36">
+    <row r="119" spans="36:36" ht="13">
       <c r="AJ119" s="12" t="s">
         <v>776</v>
       </c>
     </row>
-    <row r="120" spans="36:36">
+    <row r="120" spans="36:36" ht="13">
       <c r="AJ120" s="12" t="s">
         <v>775</v>
       </c>
     </row>
-    <row r="121" spans="36:36">
+    <row r="121" spans="36:36" ht="13">
       <c r="AJ121" s="12" t="s">
         <v>774</v>
       </c>
     </row>
-    <row r="122" spans="36:36">
+    <row r="122" spans="36:36" ht="13">
       <c r="AJ122" s="12" t="s">
         <v>773</v>
       </c>
     </row>
-    <row r="123" spans="36:36">
+    <row r="123" spans="36:36" ht="13">
       <c r="AJ123" s="12" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="124" spans="36:36">
+    <row r="124" spans="36:36" ht="13">
       <c r="AJ124" s="12" t="s">
         <v>771</v>
       </c>
     </row>
-    <row r="125" spans="36:36">
+    <row r="125" spans="36:36" ht="13">
       <c r="AJ125" s="12" t="s">
         <v>770</v>
       </c>
     </row>
-    <row r="126" spans="36:36">
+    <row r="126" spans="36:36" ht="13">
       <c r="AJ126" s="12" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="127" spans="36:36">
+    <row r="127" spans="36:36" ht="13">
       <c r="AJ127" s="12" t="s">
         <v>768</v>
       </c>
     </row>
-    <row r="128" spans="36:36">
+    <row r="128" spans="36:36" ht="13">
       <c r="AJ128" s="12" t="s">
         <v>767</v>
       </c>
     </row>
-    <row r="129" spans="36:36">
+    <row r="129" spans="36:36" ht="13">
       <c r="AJ129" s="12" t="s">
         <v>766</v>
       </c>
     </row>
-    <row r="130" spans="36:36">
+    <row r="130" spans="36:36" ht="13">
       <c r="AJ130" s="12" t="s">
         <v>765</v>
       </c>
     </row>
-    <row r="131" spans="36:36">
+    <row r="131" spans="36:36" ht="13">
       <c r="AJ131" s="12" t="s">
         <v>764</v>
       </c>
     </row>
-    <row r="132" spans="36:36">
+    <row r="132" spans="36:36" ht="13">
       <c r="AJ132" s="12" t="s">
         <v>763</v>
       </c>
     </row>
-    <row r="133" spans="36:36">
+    <row r="133" spans="36:36" ht="13">
       <c r="AJ133" s="12" t="s">
         <v>762</v>
       </c>
     </row>
-    <row r="134" spans="36:36">
+    <row r="134" spans="36:36" ht="13">
       <c r="AJ134" s="12" t="s">
         <v>761</v>
       </c>
     </row>
-    <row r="135" spans="36:36">
+    <row r="135" spans="36:36" ht="13">
       <c r="AJ135" s="12" t="s">
         <v>760</v>
       </c>
     </row>
-    <row r="136" spans="36:36">
+    <row r="136" spans="36:36" ht="13">
       <c r="AJ136" s="12" t="s">
         <v>759</v>
       </c>
     </row>
-    <row r="137" spans="36:36">
+    <row r="137" spans="36:36" ht="13">
       <c r="AJ137" s="12" t="s">
         <v>758</v>
       </c>
     </row>
-    <row r="138" spans="36:36">
+    <row r="138" spans="36:36" ht="13">
       <c r="AJ138" s="12" t="s">
         <v>757</v>
       </c>
     </row>
-    <row r="139" spans="36:36">
+    <row r="139" spans="36:36" ht="13">
       <c r="AJ139" s="12" t="s">
         <v>756</v>
       </c>
     </row>
-    <row r="140" spans="36:36">
+    <row r="140" spans="36:36" ht="13">
       <c r="AJ140" s="12" t="s">
         <v>755</v>
       </c>
     </row>
-    <row r="141" spans="36:36">
+    <row r="141" spans="36:36" ht="13">
       <c r="AJ141" s="12" t="s">
         <v>754</v>
       </c>
     </row>
-    <row r="142" spans="36:36">
+    <row r="142" spans="36:36" ht="13">
       <c r="AJ142" s="12" t="s">
         <v>753</v>
       </c>
     </row>
-    <row r="143" spans="36:36">
+    <row r="143" spans="36:36" ht="13">
       <c r="AJ143" s="12" t="s">
         <v>752</v>
       </c>
     </row>
-    <row r="144" spans="36:36">
+    <row r="144" spans="36:36" ht="13">
       <c r="AJ144" s="12" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="145" spans="36:36">
+    <row r="145" spans="36:36" ht="13">
       <c r="AJ145" s="12" t="s">
         <v>750</v>
       </c>
     </row>
-    <row r="146" spans="36:36">
+    <row r="146" spans="36:36" ht="13">
       <c r="AJ146" s="12" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="147" spans="36:36">
+    <row r="147" spans="36:36" ht="13">
       <c r="AJ147" s="12" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="148" spans="36:36">
+    <row r="148" spans="36:36" ht="13">
       <c r="AJ148" s="12" t="s">
         <v>747</v>
       </c>
     </row>
-    <row r="149" spans="36:36">
+    <row r="149" spans="36:36" ht="13">
       <c r="AJ149" s="12" t="s">
         <v>746</v>
       </c>
     </row>
-    <row r="150" spans="36:36">
+    <row r="150" spans="36:36" ht="13">
       <c r="AJ150" s="12" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="151" spans="36:36">
+    <row r="151" spans="36:36" ht="13">
       <c r="AJ151" s="12" t="s">
         <v>744</v>
       </c>
     </row>
-    <row r="152" spans="36:36">
+    <row r="152" spans="36:36" ht="13">
       <c r="AJ152" s="12" t="s">
         <v>743</v>
       </c>
     </row>
-    <row r="153" spans="36:36">
+    <row r="153" spans="36:36" ht="13">
       <c r="AJ153" s="12" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="154" spans="36:36">
+    <row r="154" spans="36:36" ht="13">
       <c r="AJ154" s="12" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="155" spans="36:36">
+    <row r="155" spans="36:36" ht="13">
       <c r="AJ155" s="12" t="s">
         <v>740</v>
       </c>
     </row>
-    <row r="156" spans="36:36">
+    <row r="156" spans="36:36" ht="13">
       <c r="AJ156" s="12" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="157" spans="36:36">
+    <row r="157" spans="36:36" ht="13">
       <c r="AJ157" s="12" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="158" spans="36:36">
+    <row r="158" spans="36:36" ht="13">
       <c r="AJ158" s="12" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="159" spans="36:36">
+    <row r="159" spans="36:36" ht="13">
       <c r="AJ159" s="12" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="160" spans="36:36">
+    <row r="160" spans="36:36" ht="13">
       <c r="AJ160" s="12" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="161" spans="36:36">
+    <row r="161" spans="36:36" ht="13">
       <c r="AJ161" s="12" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="162" spans="36:36">
+    <row r="162" spans="36:36" ht="13">
       <c r="AJ162" s="12" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="163" spans="36:36">
+    <row r="163" spans="36:36" ht="13">
       <c r="AJ163" s="12" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="164" spans="36:36">
+    <row r="164" spans="36:36" ht="13">
       <c r="AJ164" s="12" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="165" spans="36:36">
+    <row r="165" spans="36:36" ht="13">
       <c r="AJ165" s="12" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="166" spans="36:36">
+    <row r="166" spans="36:36" ht="13">
       <c r="AJ166" s="12" t="s">
         <v>729</v>
       </c>
     </row>
-    <row r="167" spans="36:36">
+    <row r="167" spans="36:36" ht="13">
       <c r="AJ167" s="12" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="168" spans="36:36">
+    <row r="168" spans="36:36" ht="13">
       <c r="AJ168" s="12" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="169" spans="36:36">
+    <row r="169" spans="36:36" ht="13">
       <c r="AJ169" s="12" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="170" spans="36:36">
+    <row r="170" spans="36:36" ht="13">
       <c r="AJ170" s="12" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="171" spans="36:36">
+    <row r="171" spans="36:36" ht="13">
       <c r="AJ171" s="12" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="172" spans="36:36">
+    <row r="172" spans="36:36" ht="13">
       <c r="AJ172" s="12" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="173" spans="36:36">
+    <row r="173" spans="36:36" ht="13">
       <c r="AJ173" s="12" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="174" spans="36:36">
+    <row r="174" spans="36:36" ht="13">
       <c r="AJ174" s="12" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="175" spans="36:36">
+    <row r="175" spans="36:36" ht="13">
       <c r="AJ175" s="12" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="176" spans="36:36">
+    <row r="176" spans="36:36" ht="13">
       <c r="AJ176" s="12" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="177" spans="36:36">
+    <row r="177" spans="36:36" ht="13">
       <c r="AJ177" s="12" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="178" spans="36:36">
+    <row r="178" spans="36:36" ht="13">
       <c r="AJ178" s="12" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="179" spans="36:36">
+    <row r="179" spans="36:36" ht="13">
       <c r="AJ179" s="12" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="180" spans="36:36">
+    <row r="180" spans="36:36" ht="13">
       <c r="AJ180" s="12" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="181" spans="36:36">
+    <row r="181" spans="36:36" ht="13">
       <c r="AJ181" s="12" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="182" spans="36:36">
+    <row r="182" spans="36:36" ht="13">
       <c r="AJ182" s="12" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="183" spans="36:36">
+    <row r="183" spans="36:36" ht="13">
       <c r="AJ183" s="12" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="184" spans="36:36">
+    <row r="184" spans="36:36" ht="13">
       <c r="AJ184" s="12" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="185" spans="36:36">
+    <row r="185" spans="36:36" ht="13">
       <c r="AJ185" s="12" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="186" spans="36:36">
+    <row r="186" spans="36:36" ht="13">
       <c r="AJ186" s="12" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="187" spans="36:36">
+    <row r="187" spans="36:36" ht="13">
       <c r="AJ187" s="12" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="188" spans="36:36">
+    <row r="188" spans="36:36" ht="13">
       <c r="AJ188" s="12" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="189" spans="36:36">
+    <row r="189" spans="36:36" ht="13">
       <c r="AJ189" s="12" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="190" spans="36:36">
+    <row r="190" spans="36:36" ht="13">
       <c r="AJ190" s="12" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="191" spans="36:36">
+    <row r="191" spans="36:36" ht="13">
       <c r="AJ191" s="12" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="192" spans="36:36">
+    <row r="192" spans="36:36" ht="13">
       <c r="AJ192" s="12" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="193" spans="36:36">
+    <row r="193" spans="36:36" ht="13">
       <c r="AJ193" s="12" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="194" spans="36:36">
+    <row r="194" spans="36:36" ht="13">
       <c r="AJ194" s="12" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="195" spans="36:36">
+    <row r="195" spans="36:36" ht="13">
       <c r="AJ195" s="12" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="196" spans="36:36">
+    <row r="196" spans="36:36" ht="13">
       <c r="AJ196" s="12" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="197" spans="36:36">
+    <row r="197" spans="36:36" ht="13">
       <c r="AJ197" s="12" t="s">
         <v>698</v>
       </c>
@@ -15537,7 +15558,7 @@
       <selection activeCell="AV21" sqref="AV21:AW21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="3" spans="1:82">
       <c r="A3" t="s">
@@ -15555,7 +15576,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="7" spans="1:82">
+    <row r="7" spans="1:82" ht="13">
       <c r="A7" s="11" t="s">
         <v>696</v>
       </c>
@@ -16175,13 +16196,13 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="8" max="8" width="24.7109375" customWidth="1"/>
+    <col min="8" max="8" width="24.6640625" customWidth="1"/>
     <col min="9" max="9" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="8:9">
+    <row r="1" spans="8:9" ht="13">
       <c r="H1" s="10" t="s">
         <v>626</v>
       </c>
@@ -16189,7 +16210,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="2" spans="8:9">
+    <row r="2" spans="8:9" ht="13">
       <c r="H2" s="9" t="s">
         <v>625</v>
       </c>
@@ -16197,7 +16218,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="3" spans="8:9">
+    <row r="3" spans="8:9" ht="13">
       <c r="H3" s="9" t="s">
         <v>650</v>
       </c>
@@ -16205,7 +16226,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="4" spans="8:9">
+    <row r="4" spans="8:9" ht="13">
       <c r="H4" s="9" t="s">
         <v>640</v>
       </c>
@@ -16213,7 +16234,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="5" spans="8:9">
+    <row r="5" spans="8:9" ht="13">
       <c r="H5" s="9" t="s">
         <v>651</v>
       </c>
@@ -16221,7 +16242,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="6" spans="8:9">
+    <row r="6" spans="8:9" ht="13">
       <c r="H6" s="9" t="s">
         <v>622</v>
       </c>
@@ -16229,7 +16250,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="7" spans="8:9">
+    <row r="7" spans="8:9" ht="13">
       <c r="H7" s="9" t="s">
         <v>621</v>
       </c>
@@ -16237,7 +16258,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="8" spans="8:9">
+    <row r="8" spans="8:9" ht="13">
       <c r="H8" s="9" t="s">
         <v>652</v>
       </c>
@@ -16245,7 +16266,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="9" spans="8:9">
+    <row r="9" spans="8:9" ht="13">
       <c r="H9" s="9" t="s">
         <v>635</v>
       </c>
@@ -16253,7 +16274,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="10" spans="8:9">
+    <row r="10" spans="8:9" ht="13">
       <c r="H10" s="9" t="s">
         <v>631</v>
       </c>
@@ -16261,7 +16282,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="11" spans="8:9">
+    <row r="11" spans="8:9" ht="13">
       <c r="H11" s="9" t="s">
         <v>614</v>
       </c>
@@ -16269,7 +16290,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="12" spans="8:9">
+    <row r="12" spans="8:9" ht="13">
       <c r="H12" s="9" t="s">
         <v>643</v>
       </c>
@@ -16277,7 +16298,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="13" spans="8:9">
+    <row r="13" spans="8:9" ht="13">
       <c r="H13" s="9" t="s">
         <v>653</v>
       </c>
@@ -16285,7 +16306,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="14" spans="8:9">
+    <row r="14" spans="8:9" ht="13">
       <c r="H14" s="9" t="s">
         <v>610</v>
       </c>
@@ -16293,7 +16314,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="15" spans="8:9">
+    <row r="15" spans="8:9" ht="13">
       <c r="H15" s="9" t="s">
         <v>654</v>
       </c>
@@ -16301,7 +16322,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="16" spans="8:9">
+    <row r="16" spans="8:9" ht="13">
       <c r="H16" s="9" t="s">
         <v>648</v>
       </c>
@@ -16309,7 +16330,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="17" spans="8:9">
+    <row r="17" spans="8:9" ht="13">
       <c r="H17" s="9" t="s">
         <v>655</v>
       </c>
@@ -16317,7 +16338,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="18" spans="8:9">
+    <row r="18" spans="8:9" ht="13">
       <c r="H18" s="9" t="s">
         <v>656</v>
       </c>
@@ -16325,7 +16346,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="19" spans="8:9">
+    <row r="19" spans="8:9" ht="13">
       <c r="H19" s="9" t="s">
         <v>613</v>
       </c>
@@ -16333,7 +16354,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="20" spans="8:9">
+    <row r="20" spans="8:9" ht="13">
       <c r="H20" s="9" t="s">
         <v>657</v>
       </c>
@@ -16341,7 +16362,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="21" spans="8:9">
+    <row r="21" spans="8:9" ht="13">
       <c r="H21" s="9" t="s">
         <v>619</v>
       </c>
@@ -16349,7 +16370,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="22" spans="8:9">
+    <row r="22" spans="8:9" ht="13">
       <c r="H22" s="9" t="s">
         <v>658</v>
       </c>
@@ -16357,7 +16378,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="23" spans="8:9">
+    <row r="23" spans="8:9" ht="13">
       <c r="H23" s="9" t="s">
         <v>659</v>
       </c>
@@ -16365,7 +16386,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="24" spans="8:9">
+    <row r="24" spans="8:9" ht="13">
       <c r="H24" s="9" t="s">
         <v>639</v>
       </c>
@@ -16373,7 +16394,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="25" spans="8:9">
+    <row r="25" spans="8:9" ht="13">
       <c r="H25" s="9" t="s">
         <v>660</v>
       </c>
@@ -16381,7 +16402,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="26" spans="8:9">
+    <row r="26" spans="8:9" ht="13">
       <c r="H26" s="9" t="s">
         <v>661</v>
       </c>
@@ -16389,7 +16410,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="27" spans="8:9">
+    <row r="27" spans="8:9" ht="13">
       <c r="H27" s="9" t="s">
         <v>662</v>
       </c>
@@ -16397,7 +16418,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="28" spans="8:9">
+    <row r="28" spans="8:9" ht="13">
       <c r="H28" s="9" t="s">
         <v>663</v>
       </c>
@@ -16405,7 +16426,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="29" spans="8:9">
+    <row r="29" spans="8:9" ht="13">
       <c r="H29" s="9" t="s">
         <v>664</v>
       </c>
@@ -16413,7 +16434,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="30" spans="8:9">
+    <row r="30" spans="8:9" ht="13">
       <c r="H30" s="9" t="s">
         <v>665</v>
       </c>
@@ -16421,7 +16442,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="31" spans="8:9">
+    <row r="31" spans="8:9" ht="13">
       <c r="H31" s="9" t="s">
         <v>628</v>
       </c>
@@ -16429,7 +16450,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="32" spans="8:9">
+    <row r="32" spans="8:9" ht="13">
       <c r="H32" s="9" t="s">
         <v>666</v>
       </c>
@@ -16437,7 +16458,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="33" spans="8:9">
+    <row r="33" spans="8:9" ht="13">
       <c r="H33" s="9" t="s">
         <v>667</v>
       </c>
@@ -16445,7 +16466,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="34" spans="8:9">
+    <row r="34" spans="8:9" ht="13">
       <c r="H34" s="9" t="s">
         <v>615</v>
       </c>
@@ -16453,7 +16474,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="35" spans="8:9">
+    <row r="35" spans="8:9" ht="13">
       <c r="H35" s="9" t="s">
         <v>668</v>
       </c>
@@ -16461,7 +16482,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="36" spans="8:9">
+    <row r="36" spans="8:9" ht="13">
       <c r="H36" s="9" t="s">
         <v>636</v>
       </c>
@@ -16469,7 +16490,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="37" spans="8:9">
+    <row r="37" spans="8:9" ht="13">
       <c r="H37" s="9" t="s">
         <v>669</v>
       </c>
@@ -16477,7 +16498,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="38" spans="8:9">
+    <row r="38" spans="8:9" ht="13">
       <c r="H38" s="9" t="s">
         <v>670</v>
       </c>
@@ -16485,7 +16506,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="39" spans="8:9">
+    <row r="39" spans="8:9" ht="13">
       <c r="H39" s="9" t="s">
         <v>612</v>
       </c>
@@ -16493,7 +16514,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="40" spans="8:9">
+    <row r="40" spans="8:9" ht="13">
       <c r="H40" s="9" t="s">
         <v>642</v>
       </c>
@@ -16501,7 +16522,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="41" spans="8:9">
+    <row r="41" spans="8:9" ht="13">
       <c r="H41" s="9" t="s">
         <v>629</v>
       </c>
@@ -16509,7 +16530,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="42" spans="8:9">
+    <row r="42" spans="8:9" ht="13">
       <c r="H42" s="9" t="s">
         <v>671</v>
       </c>
@@ -16517,7 +16538,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="43" spans="8:9">
+    <row r="43" spans="8:9" ht="13">
       <c r="H43" s="9" t="s">
         <v>672</v>
       </c>
@@ -16525,7 +16546,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="44" spans="8:9">
+    <row r="44" spans="8:9" ht="13">
       <c r="H44" s="9" t="s">
         <v>673</v>
       </c>
@@ -16533,7 +16554,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="45" spans="8:9">
+    <row r="45" spans="8:9" ht="13">
       <c r="H45" s="9" t="s">
         <v>674</v>
       </c>
@@ -16541,7 +16562,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="46" spans="8:9">
+    <row r="46" spans="8:9" ht="13">
       <c r="H46" s="9" t="s">
         <v>623</v>
       </c>
@@ -16549,7 +16570,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="47" spans="8:9">
+    <row r="47" spans="8:9" ht="13">
       <c r="H47" s="9" t="s">
         <v>675</v>
       </c>
@@ -16557,7 +16578,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="48" spans="8:9">
+    <row r="48" spans="8:9" ht="13">
       <c r="H48" s="9" t="s">
         <v>676</v>
       </c>
@@ -16565,7 +16586,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="49" spans="8:9">
+    <row r="49" spans="8:9" ht="13">
       <c r="H49" s="9" t="s">
         <v>677</v>
       </c>
@@ -16573,7 +16594,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="50" spans="8:9">
+    <row r="50" spans="8:9" ht="13">
       <c r="H50" s="9" t="s">
         <v>630</v>
       </c>
@@ -16581,7 +16602,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="51" spans="8:9">
+    <row r="51" spans="8:9" ht="13">
       <c r="H51" s="9" t="s">
         <v>678</v>
       </c>
@@ -16589,7 +16610,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="52" spans="8:9">
+    <row r="52" spans="8:9" ht="13">
       <c r="H52" s="9" t="s">
         <v>617</v>
       </c>
@@ -16597,7 +16618,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="53" spans="8:9">
+    <row r="53" spans="8:9" ht="13">
       <c r="H53" s="10" t="s">
         <v>641</v>
       </c>
@@ -16605,7 +16626,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="54" spans="8:9">
+    <row r="54" spans="8:9" ht="13">
       <c r="H54" s="10" t="s">
         <v>627</v>
       </c>
@@ -16613,7 +16634,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="55" spans="8:9">
+    <row r="55" spans="8:9" ht="13">
       <c r="H55" s="9" t="s">
         <v>679</v>
       </c>
@@ -16621,7 +16642,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="56" spans="8:9">
+    <row r="56" spans="8:9" ht="13">
       <c r="H56" s="9" t="s">
         <v>644</v>
       </c>
@@ -16629,7 +16650,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="57" spans="8:9">
+    <row r="57" spans="8:9" ht="13">
       <c r="H57" s="9" t="s">
         <v>620</v>
       </c>
@@ -16637,7 +16658,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="58" spans="8:9">
+    <row r="58" spans="8:9" ht="13">
       <c r="H58" s="9" t="s">
         <v>645</v>
       </c>
@@ -16645,7 +16666,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="59" spans="8:9">
+    <row r="59" spans="8:9" ht="13">
       <c r="H59" s="10" t="s">
         <v>624</v>
       </c>
@@ -16653,7 +16674,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="60" spans="8:9">
+    <row r="60" spans="8:9" ht="13">
       <c r="H60" s="10" t="s">
         <v>680</v>
       </c>
@@ -16661,7 +16682,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="61" spans="8:9">
+    <row r="61" spans="8:9" ht="13">
       <c r="H61" s="10" t="s">
         <v>632</v>
       </c>
@@ -16669,7 +16690,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="62" spans="8:9">
+    <row r="62" spans="8:9" ht="13">
       <c r="H62" s="10" t="s">
         <v>611</v>
       </c>
@@ -16677,7 +16698,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="63" spans="8:9">
+    <row r="63" spans="8:9" ht="13">
       <c r="H63" s="10" t="s">
         <v>646</v>
       </c>
@@ -16685,7 +16706,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="64" spans="8:9">
+    <row r="64" spans="8:9" ht="13">
       <c r="H64" s="10" t="s">
         <v>681</v>
       </c>
@@ -16693,7 +16714,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="65" spans="8:9">
+    <row r="65" spans="8:9" ht="13">
       <c r="H65" s="10" t="s">
         <v>682</v>
       </c>
@@ -16701,7 +16722,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="66" spans="8:9">
+    <row r="66" spans="8:9" ht="13">
       <c r="H66" s="10" t="s">
         <v>609</v>
       </c>
@@ -16709,7 +16730,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="67" spans="8:9">
+    <row r="67" spans="8:9" ht="13">
       <c r="H67" s="10" t="s">
         <v>634</v>
       </c>
@@ -16717,7 +16738,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="68" spans="8:9">
+    <row r="68" spans="8:9" ht="13">
       <c r="H68" s="10" t="s">
         <v>683</v>
       </c>
@@ -16725,7 +16746,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="69" spans="8:9">
+    <row r="69" spans="8:9" ht="13">
       <c r="H69" s="10" t="s">
         <v>608</v>
       </c>
@@ -16733,7 +16754,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="70" spans="8:9">
+    <row r="70" spans="8:9" ht="13">
       <c r="H70" s="10" t="s">
         <v>633</v>
       </c>
@@ -16741,7 +16762,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="71" spans="8:9">
+    <row r="71" spans="8:9" ht="13">
       <c r="H71" s="10" t="s">
         <v>684</v>
       </c>
@@ -16749,7 +16770,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="72" spans="8:9">
+    <row r="72" spans="8:9" ht="13">
       <c r="H72" s="10" t="s">
         <v>637</v>
       </c>
@@ -16757,7 +16778,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="73" spans="8:9">
+    <row r="73" spans="8:9" ht="13">
       <c r="H73" s="10" t="s">
         <v>692</v>
       </c>
@@ -16765,7 +16786,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="74" spans="8:9">
+    <row r="74" spans="8:9" ht="13">
       <c r="H74" s="10" t="s">
         <v>607</v>
       </c>
@@ -16773,7 +16794,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="75" spans="8:9">
+    <row r="75" spans="8:9" ht="13">
       <c r="H75" s="10" t="s">
         <v>638</v>
       </c>
@@ -16781,7 +16802,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="76" spans="8:9">
+    <row r="76" spans="8:9" ht="13">
       <c r="H76" s="10" t="s">
         <v>647</v>
       </c>
@@ -16789,7 +16810,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="77" spans="8:9">
+    <row r="77" spans="8:9" ht="13">
       <c r="H77" s="10" t="s">
         <v>618</v>
       </c>
@@ -16797,7 +16818,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="78" spans="8:9">
+    <row r="78" spans="8:9" ht="13">
       <c r="H78" s="10" t="s">
         <v>616</v>
       </c>
@@ -16805,7 +16826,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="79" spans="8:9">
+    <row r="79" spans="8:9" ht="13">
       <c r="H79" s="10" t="s">
         <v>685</v>
       </c>
@@ -16813,7 +16834,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="80" spans="8:9">
+    <row r="80" spans="8:9" ht="13">
       <c r="H80" s="10" t="s">
         <v>686</v>
       </c>
@@ -16821,7 +16842,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="81" spans="8:9">
+    <row r="81" spans="8:9" ht="13">
       <c r="H81" s="10" t="s">
         <v>687</v>
       </c>
@@ -16829,7 +16850,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="82" spans="8:9">
+    <row r="82" spans="8:9" ht="13">
       <c r="H82" s="10" t="s">
         <v>693</v>
       </c>
@@ -16837,7 +16858,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="83" spans="8:9">
+    <row r="83" spans="8:9" ht="13">
       <c r="H83" s="10" t="s">
         <v>689</v>
       </c>
@@ -16845,7 +16866,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="84" spans="8:9">
+    <row r="84" spans="8:9" ht="13">
       <c r="H84" s="10" t="s">
         <v>694</v>
       </c>
@@ -16856,7 +16877,7 @@
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
